--- a/simper/group_krusk_simper.xlsx
+++ b/simper/group_krusk_simper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/simper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{0BF69CA4-1627-4376-95DA-C6DD020424A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E7D95B93-E9B2-4CBA-86CE-A9855E98DEFC}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:40009_{0BF69CA4-1627-4376-95DA-C6DD020424A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3A94E70-580B-4292-B585-BC0881871FB3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group_krusk_simper" sheetId="7" r:id="rId1"/>
@@ -20,13 +20,25 @@
     <sheet name="IBA" sheetId="5" r:id="rId5"/>
     <sheet name="Spring" sheetId="6" r:id="rId6"/>
     <sheet name="All Sig" sheetId="1" r:id="rId7"/>
+    <sheet name="SIMPER%" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="129">
   <si>
     <t>X</t>
   </si>
@@ -398,9 +410,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>LT</t>
-  </si>
-  <si>
     <t>TI</t>
   </si>
   <si>
@@ -414,12 +423,30 @@
   </si>
   <si>
     <t>Lachnospiraceae NK4A136</t>
+  </si>
+  <si>
+    <t>SummerWild_Total</t>
+  </si>
+  <si>
+    <t>SummerLab_Total</t>
+  </si>
+  <si>
+    <t>Torpor_Total</t>
+  </si>
+  <si>
+    <t>IBA_Toral</t>
+  </si>
+  <si>
+    <t>Spring_Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,7 +967,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,6 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1319,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,2004 +1366,2004 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.6751511253426001E-2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.5635688115679599E-6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.36098890546761E-4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.5104168223426701E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5.4603373338422898E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>6.5627132881818696E-6</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2.4555424652005201E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="4">
+        <v>1.46294341141188E-2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.6280492294981301E-6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.8795885841355502E-4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.42042093421262E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.8151119664909399E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.0515260521773E-2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.6280492294981301E-6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.8795885841355502E-4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.7397362397657701E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.5513462455964E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.0330569800664E-2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.6280492294981301E-6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.8795885841355502E-4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.7091793990679401E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.7603489917884302E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.3870483571996E-2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.32947227626065E-5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.3458385619226401E-4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.42042093421262E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.8151119664909399E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.6641117986104999E-2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.2290322210248401E-5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.3458385619226401E-4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.5104168223426701E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.4603373338422898E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.6604182899736499E-5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3.6942710237724101E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.0464782187897001E-2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.87307684349106E-5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6.1976371909592902E-4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.8267759990485601E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.7183529853600199E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>6.5524788027310702E-6</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.4517130713918401E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.5491939259112001E-2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.5855425360259399E-5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8.6552115367489601E-4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.6129913242207901E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4.8934249461808202E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.9832000196703401E-5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5.3669750959294597E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.3814631382657001E-2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.3095973240113301E-5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.22638799547301E-3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.42042093421262E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.8151119664909399E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.03620922707729E-2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8.5682980109105106E-5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.2938129996474901E-3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.8082012010784999E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.4247315843463201E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.0421659723501E-2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.2922981424876199E-4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.7739729046875501E-3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.8267759990485601E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.7183529853600199E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>8.2765013573462197E-6</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2.7450049579184599E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.0926445633813E-2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.4859516674946901E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.8698225149308199E-3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.8082012010784999E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.4247315843463201E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>6.0888361189758599E-6</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2.3581960886579699E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
         <v>2.6887807124092E-2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D14" s="4">
         <v>2.1143234026049199E-4</v>
       </c>
-      <c r="E2">
+      <c r="E14" s="4">
         <v>2.3135734766069399E-3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G14" s="4">
         <v>6.1863943908684201E-4</v>
       </c>
-      <c r="H2">
+      <c r="H14" s="4">
         <v>8.5602733199414299E-4</v>
       </c>
-      <c r="I2">
+      <c r="I14" s="4">
         <v>4.5104168223426701E-2</v>
       </c>
-      <c r="J2">
+      <c r="J14" s="4">
         <v>5.4603373338422898E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.1102821097928E-2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.1450350114236499E-4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.3135734766069399E-3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.76017145123898E-4</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.4985415492449497E-4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.86847030595131E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.2615755729719E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1.5425799284123E-2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.1042436511621798E-4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.1067123294954398E-3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.6129913242207901E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4.8934249461808202E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3.31248558593182E-5</v>
+      </c>
+      <c r="J16" s="5">
+        <v>6.1329330535177606E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1.2273834796561E-2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.2918806140349102E-4</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.1067123294954398E-3</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4.9846324097109701E-5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.10902782012337E-4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.0793007777358201E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.2150304131566401E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.4089121081071999E-2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.7551813738079697E-4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.2174562700597602E-3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.4585735192489199E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.0878994239653299E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1.1051405265655999E-2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4.8880519637981197E-4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3.2174562700597602E-3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.07918155277056E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>8.0655722384352505E-4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2.04420236848043E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.88660684825274E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1.0320367298716999E-2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.7104076560566599E-4</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.2174562700597602E-3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.8082012010784999E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.4247315843463201E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2.9479581980431002E-2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.9448429004079402E-4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3.2174562700597602E-3</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4.5104168223426701E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5.4603373338422898E-2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1.2817307114456E-2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4.9007612060512895E-4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.2174562700597602E-3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.3281288272869399E-3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3.3160315197191701E-3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.0793007777358201E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1.2150304131566401E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.3746364049411999E-2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.8221690805560097E-4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.2174562700597602E-3</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="5">
+        <v>9.1067810753509698E-5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.0076268232717499E-4</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2.30066072408995E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3.8121565744719303E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1.2383397252935E-2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.4709374236835399E-4</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.2174562700597602E-3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.4956875531973101E-4</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2.20860187054893E-4</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2.0793007777358201E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.2150304131566401E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.3583672535368E-2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.8896780730196196E-4</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3.7055891209415099E-3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4.9779387203236602E-5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>7.4797843857555199E-5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2.30066072408995E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3.8121565744719303E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1.0839988182833001E-2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6.6098339701294799E-4</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.9923397179582104E-3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3.73056046286646E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>6.3935557478461396E-3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2.04420236848043E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.88660684825274E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B27" s="4">
+        <v>1.2210473649617999E-2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.43438938420371E-3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8.0219554449911298E-3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.6538140175599601E-2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.7382765348477099E-2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>6.3472756656199301E-3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2.3587040805899899E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.5480738776680605E-2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.3871294952352801E-3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8.0219554449911298E-3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3.4610224249491902E-3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>7.0322256248972603E-3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.112983569938599</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.13087528343695901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1.0045032547470001E-2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.6020006947992801E-3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8.6393608898103907E-3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.7397362397657701E-2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.5513462455964E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1.0721698686794999E-2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.71921319353563E-3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8.9517652490993093E-3</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="4">
+        <v>6.1207264399438805E-4</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.14794880683829E-3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.86847030595131E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.2615755729719E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.1029936719082</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.78188695968566E-3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>8.9688310304178107E-3</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3.95569875740395E-3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5.8410486104482897E-3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.17586894198809999</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.186293759388517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2.2141416764108999E-2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.93252894761882E-3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>9.1666993768887498E-3</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3.7531835150754603E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3.9626339196650401E-2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>9.93140370054076E-5</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1.4356956975942E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1.3707866296266E-2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.94261178847973E-3</v>
+      </c>
+      <c r="E33" s="4">
+        <v>9.1666993768887498E-3</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2.32386461488088E-2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2.6678092245348901E-2</v>
+      </c>
+      <c r="I33" s="5">
+        <v>7.4644527047648606E-5</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.27721295891486E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1.3966463315076999E-2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2.02884319498266E-3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>9.2834946194661101E-3</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2.42042093421262E-2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1.8151119664909399E-2</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1.5176349177441899E-5</v>
+      </c>
+      <c r="J34" s="5">
+        <v>3.7174311643039798E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1.0765141214877001E-2</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2.3495116627979601E-3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.04345959141909E-2</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5">
+        <v>4.0157898298094501E-5</v>
+      </c>
+      <c r="H35" s="5">
+        <v>5.0086419716897801E-5</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.86847030595131E-2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1.2615755729719E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1.1669882966829E-2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2.55609494822942E-3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.1027723919504E-2</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5.8150700294537603E-4</v>
+      </c>
+      <c r="H36" s="4">
+        <v>6.3220522825312598E-4</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2.0793007777358201E-2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1.2150304131566401E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.0659126140329E-2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2.69979606326019E-3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.13241445986747E-2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1.69591099101968E-4</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1.04776558364639E-4</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.8630524842155601E-2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2.6263460365871301E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2.2052270006887E-2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.35924776026016E-3</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.34753032504449E-2</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3.7531835150754603E-2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>3.9626339196650401E-2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>8.2062028454509602E-4</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1.7707196365263601E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1.3739199923438E-2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3.45551132991686E-3</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.34753032504449E-2</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2.32386461488088E-2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2.6678092245348901E-2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.49870699321712E-4</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1.7728164816121299E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1.0711073033499999E-2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3.4803763362076302E-3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.34753032504449E-2</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="4">
+        <v>7.5489014578499901E-4</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1.1941349093831501E-3</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.8630524842155601E-2</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2.6263460365871301E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="4">
+        <v>9.9740717298305706E-2</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.3231112255314903E-3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.59217023184209E-2</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="4">
+        <v>3.4506308360150299E-3</v>
+      </c>
+      <c r="H41" s="4">
+        <v>5.9901550425230602E-3</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.17586894198809999</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.186293759388517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1.3200658060594001E-2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.2220634805107899E-3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.59217023184209E-2</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1.47395159614253E-4</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1.5181648095285199E-4</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2.30066072408995E-2</v>
+      </c>
+      <c r="J42" s="4">
+        <v>3.8121565744719303E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1.0440341186232001E-2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5.1829510104119498E-3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1.8268997577525301E-2</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1.8082012010784999E-2</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2.4247315843463201E-2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1.8254957186359999E-2</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5.2024297737323696E-3</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1.8268997577525301E-2</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="4">
+        <v>3.0774577979853501E-2</v>
+      </c>
+      <c r="H44" s="4">
+        <v>7.4878364619457793E-2</v>
+      </c>
+      <c r="I44" s="5">
+        <v>6.5106709897521999E-6</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2.4360700201661101E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1.5543679924550399E-2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="4">
+        <v>6.1231132470479302E-3</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2.1013411370550801E-2</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="4">
+        <v>6.8937481838637698E-4</v>
+      </c>
+      <c r="H45" s="4">
+        <v>9.3634097821457599E-4</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2.6129913242207901E-2</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4.8934249461808202E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1.0795451672942E-2</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="4">
+        <v>6.4127141223889296E-3</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2.1518218499571699E-2</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1.3284654892020201E-3</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2.3275150627334899E-3</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1.8630524842155601E-2</v>
+      </c>
+      <c r="J46" s="4">
+        <v>2.6263460365871301E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3.7332849799152003E-2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="4">
+        <v>6.7437456873041699E-3</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2.2137078234411502E-2</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="4">
+        <v>3.4610224249491902E-3</v>
+      </c>
+      <c r="H47" s="4">
+        <v>7.0322256248972603E-3</v>
+      </c>
+      <c r="I47" s="4">
+        <v>6.4106017817475103E-2</v>
+      </c>
+      <c r="J47" s="4">
+        <v>9.8531442561188301E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1.1018000195130001E-2</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="4">
+        <v>9.3572306169559406E-3</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3.0062591982135001E-2</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1.8267759990485601E-2</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2.7183529853600199E-2</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2.1121712587617702E-3</v>
+      </c>
+      <c r="J48" s="4">
+        <v>4.5968998279202998E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2.7201918040467999E-2</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="4">
+        <v>9.9041611679263099E-3</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3.11568403407682E-2</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="4">
+        <v>9.1008061842888196E-4</v>
+      </c>
+      <c r="H49" s="4">
+        <v>3.0217096353238899E-3</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4.5862968345802599E-2</v>
+      </c>
+      <c r="J49" s="4">
+        <v>6.4653305599673402E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1.3726620849574E-2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1.03611500183703E-2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3.19292582198758E-2</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2.3410531699338499E-2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>3.1438683796349301E-2</v>
+      </c>
+      <c r="I50" s="4">
+        <v>4.2353093331845202E-4</v>
+      </c>
+      <c r="J50" s="4">
+        <v>6.0957730998738096E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="4">
+        <v>6.4038322852725302E-2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1.1932456658554601E-2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3.6036019108834902E-2</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.112983569938599</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.13087528343695901</v>
+      </c>
+      <c r="I51" s="4">
+        <v>8.1042063620943398E-3</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1.26536214774201E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="4">
+        <v>6.2440823106186698E-2</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1.2753342732151301E-2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3.7759897108918597E-2</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5.3532921644549496E-3</v>
+      </c>
+      <c r="H52" s="4">
+        <v>5.4322289554097902E-3</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.112983569938599</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.13087528343695901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3.9215537593821598E-2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1.45742966312552E-2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>4.2321515217683403E-2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>6.7918836092825396E-2</v>
+      </c>
+      <c r="J53" s="4">
+        <v>5.7760150102310899E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1.818360597486E-2</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1.5766131036156199E-2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>4.4918599744520601E-2</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="4">
+        <v>3.0774577979853501E-2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>7.4878364619457793E-2</v>
+      </c>
+      <c r="I54" s="5">
+        <v>8.3494756529289898E-6</v>
+      </c>
+      <c r="J54" s="5">
+        <v>2.76920779369731E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="4">
         <v>2.2323127194787299E-2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D55" s="4">
         <v>1.6409224348251601E-2</v>
       </c>
-      <c r="E3">
+      <c r="E55" s="4">
         <v>4.5885053270110998E-2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G55" s="4">
         <v>1.4975322975506399E-3</v>
       </c>
-      <c r="H3">
+      <c r="H55" s="4">
         <v>2.6250332111096698E-3</v>
       </c>
-      <c r="I3">
+      <c r="I55" s="4">
         <v>3.7531835150754603E-2</v>
       </c>
-      <c r="J3">
+      <c r="J55" s="4">
         <v>3.9626339196650401E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1.8972343784333399E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>0.451966988765587</v>
-      </c>
-      <c r="E4">
-        <v>0.62611940645508002</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>3.0633680748453499E-3</v>
-      </c>
-      <c r="H4">
-        <v>3.0163525357074501E-3</v>
-      </c>
-      <c r="I4">
-        <v>3.0774577979853501E-2</v>
-      </c>
-      <c r="J4">
-        <v>7.4878364619457793E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>1.5543679924550399E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>6.1231132470479302E-3</v>
-      </c>
-      <c r="E5">
-        <v>2.1013411370550801E-2</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2.0244439858639999E-2</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1.6827409482756801E-2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4.6198887852659597E-2</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1.68120605655792E-3</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1.4601327874624E-3</v>
+      </c>
+      <c r="I56" s="4">
+        <v>3.64617641836599E-2</v>
+      </c>
+      <c r="J56" s="4">
+        <v>3.5359845530699797E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2.0603813089908E-2</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1.8377898751097299E-2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>4.9554691275280199E-2</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3.5127288487227901E-3</v>
+      </c>
+      <c r="H57" s="4">
+        <v>3.93530238619189E-3</v>
+      </c>
+      <c r="I57" s="4">
+        <v>3.64617641836599E-2</v>
+      </c>
+      <c r="J57" s="4">
+        <v>3.5359845530699797E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1.188871546547E-2</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1.8732509331271699E-2</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4.9624717702140803E-2</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5">
-        <v>6.8937481838637698E-4</v>
-      </c>
-      <c r="H5">
-        <v>9.3634097821457599E-4</v>
-      </c>
-      <c r="I5">
-        <v>2.6129913242207901E-2</v>
-      </c>
-      <c r="J5">
-        <v>4.8934249461808202E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1.46294341141188E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7.6280492294981301E-6</v>
-      </c>
-      <c r="E6">
-        <v>2.8795885841355502E-4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>2.42042093421262E-2</v>
-      </c>
-      <c r="H6">
-        <v>1.8151119664909399E-2</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1.4312253014622099E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>3.6104079874027001E-2</v>
-      </c>
-      <c r="E7">
-        <v>8.38725547842782E-2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <v>2.4585735192489199E-2</v>
-      </c>
-      <c r="H7">
-        <v>2.0878994239653299E-2</v>
-      </c>
-      <c r="I7">
-        <v>6.8334783289324599E-3</v>
-      </c>
-      <c r="J7">
-        <v>1.49190838451568E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1.3856000912915001E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>4.33391346827511E-2</v>
-      </c>
-      <c r="E8">
-        <v>9.9154686925688101E-2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <v>6.5422166332640397E-4</v>
-      </c>
-      <c r="H8">
-        <v>6.0078639043619603E-4</v>
-      </c>
-      <c r="I8">
-        <v>2.32386461488088E-2</v>
-      </c>
-      <c r="J8">
-        <v>2.6678092245348901E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1.3855611116830001E-2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>0.69742536494323804</v>
-      </c>
-      <c r="E9">
-        <v>0.81008638543406897</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>3.6522985873917902E-3</v>
-      </c>
-      <c r="H9">
-        <v>3.39034003782004E-3</v>
-      </c>
-      <c r="I9">
-        <v>2.3410531699338499E-2</v>
-      </c>
-      <c r="J9">
-        <v>3.1438683796349301E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1.2210473649617999E-2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>1.43438938420371E-3</v>
-      </c>
-      <c r="E10">
-        <v>8.0219554449911298E-3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>1.6538140175599601E-2</v>
-      </c>
-      <c r="H10">
-        <v>1.7382765348477099E-2</v>
-      </c>
-      <c r="I10">
-        <v>6.3472756656199301E-3</v>
-      </c>
-      <c r="J10">
-        <v>2.3587040805899899E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1.1018000195130001E-2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>9.3572306169559406E-3</v>
-      </c>
-      <c r="E11">
-        <v>3.0062591982135001E-2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>1.8267759990485601E-2</v>
-      </c>
-      <c r="H11">
-        <v>2.7183529853600199E-2</v>
-      </c>
-      <c r="I11">
-        <v>2.1121712587617702E-3</v>
-      </c>
-      <c r="J11">
-        <v>4.5968998279202998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1.0926445633813E-2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>1.4859516674946901E-4</v>
-      </c>
-      <c r="E12">
-        <v>1.8698225149308199E-3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <v>1.8082012010784999E-2</v>
-      </c>
-      <c r="H12">
-        <v>2.4247315843463201E-2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>6.0888361189758599E-6</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2.3581960886579699E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1.0515260521773E-2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7.6280492294981301E-6</v>
-      </c>
-      <c r="E13">
-        <v>2.8795885841355502E-4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>1.7397362397657701E-2</v>
-      </c>
-      <c r="H13">
-        <v>2.5513462455964E-2</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>1.0330569800664E-2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7.6280492294981301E-6</v>
-      </c>
-      <c r="E14">
-        <v>2.8795885841355502E-4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>1.7091793990679401E-2</v>
-      </c>
-      <c r="H14">
-        <v>2.7603489917884302E-2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>9.9740717298305706E-2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>4.3231112255314903E-3</v>
-      </c>
-      <c r="E15">
-        <v>1.59217023184209E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15">
-        <v>3.4506308360150299E-3</v>
-      </c>
-      <c r="H15">
-        <v>5.9901550425230602E-3</v>
-      </c>
-      <c r="I15">
-        <v>0.17586894198809999</v>
-      </c>
-      <c r="J15">
-        <v>0.186293759388517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>3.5515027613919302E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16">
-        <v>0.20469795356714801</v>
-      </c>
-      <c r="E16">
-        <v>0.33235904288859502</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16">
-        <v>5.3532921644549496E-3</v>
-      </c>
-      <c r="H16">
-        <v>5.4322289554097902E-3</v>
-      </c>
-      <c r="I16">
-        <v>6.4106017817475103E-2</v>
-      </c>
-      <c r="J16">
-        <v>9.8531442561188301E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>2.8942348141859E-2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17">
-        <v>0.13312848419605999</v>
-      </c>
-      <c r="E17">
-        <v>0.228436376290967</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17">
-        <v>2.96281993056133E-3</v>
-      </c>
-      <c r="H17">
-        <v>5.3984693086661303E-3</v>
-      </c>
-      <c r="I17">
-        <v>4.9461989674912901E-2</v>
-      </c>
-      <c r="J17">
-        <v>9.46978833190351E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>2.0701651326056E-2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18">
-        <v>5.7035578225762197E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.119616282112362</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18">
-        <v>3.0990098627568501E-3</v>
-      </c>
-      <c r="H18">
-        <v>3.1652954271026001E-3</v>
-      </c>
-      <c r="I18">
-        <v>3.7618970016163301E-2</v>
-      </c>
-      <c r="J18">
-        <v>4.4177988373865197E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>2.0244439858639999E-2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>1.6827409482756801E-2</v>
-      </c>
-      <c r="E19">
-        <v>4.6198887852659597E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19">
-        <v>1.68120605655792E-3</v>
-      </c>
-      <c r="H19">
-        <v>1.4601327874624E-3</v>
-      </c>
-      <c r="I19">
-        <v>3.64617641836599E-2</v>
-      </c>
-      <c r="J19">
-        <v>3.5359845530699797E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>1.5459885288766E-2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20">
-        <v>0.11706612320357</v>
-      </c>
-      <c r="E20">
-        <v>0.210440292901655</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20">
-        <v>5.2167116382532898E-4</v>
-      </c>
-      <c r="H20">
-        <v>6.0605589497870495E-4</v>
-      </c>
-      <c r="I20">
-        <v>2.7227439688311199E-2</v>
-      </c>
-      <c r="J20">
-        <v>3.8024556272194802E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>1.4089121081071999E-2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>4.7551813738079697E-4</v>
-      </c>
-      <c r="E21">
-        <v>3.2174562700597602E-3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21">
-        <v>2.4585735192489199E-2</v>
-      </c>
-      <c r="H21">
-        <v>2.0878994239653299E-2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>1.3870483571996E-2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.32947227626065E-5</v>
-      </c>
-      <c r="E22">
-        <v>3.3458385619226401E-4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <v>2.42042093421262E-2</v>
-      </c>
-      <c r="H22">
-        <v>1.8151119664909399E-2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>1.2847367076451999E-2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23">
-        <v>9.9020320882722598E-2</v>
-      </c>
-      <c r="E23">
-        <v>0.18459343769495201</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="1">
-        <v>6.7198158642202703E-5</v>
-      </c>
-      <c r="H23" s="1">
-        <v>7.12004066528599E-5</v>
-      </c>
-      <c r="I23">
-        <v>2.24380546348984E-2</v>
-      </c>
-      <c r="J23">
-        <v>5.4540569936595097E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>1.0464782187897001E-2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.87307684349106E-5</v>
-      </c>
-      <c r="E24">
-        <v>6.1976371909592902E-4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24">
-        <v>1.8267759990485601E-2</v>
-      </c>
-      <c r="H24">
-        <v>2.7183529853600199E-2</v>
-      </c>
-      <c r="I24" s="1">
-        <v>6.5524788027310702E-6</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2.4517130713918401E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>1.03620922707729E-2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1">
-        <v>8.5682980109105106E-5</v>
-      </c>
-      <c r="E25">
-        <v>1.2938129996474901E-3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25">
-        <v>1.8082012010784999E-2</v>
-      </c>
-      <c r="H25">
-        <v>2.4247315843463201E-2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26">
-        <v>6.2440823106186698E-2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26">
-        <v>1.2753342732151301E-2</v>
-      </c>
-      <c r="E26">
-        <v>3.7759897108918597E-2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26">
-        <v>5.3532921644549496E-3</v>
-      </c>
-      <c r="H26">
-        <v>5.4322289554097902E-3</v>
-      </c>
-      <c r="I26">
-        <v>0.112983569938599</v>
-      </c>
-      <c r="J26">
-        <v>0.13087528343695901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27">
-        <v>3.0095890055676901E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27">
-        <v>0.50709270910208004</v>
-      </c>
-      <c r="E27">
-        <v>0.65910266721046795</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27">
-        <v>2.96281993056133E-3</v>
-      </c>
-      <c r="H27">
-        <v>5.3984693086661303E-3</v>
-      </c>
-      <c r="I27">
-        <v>5.2133127653374502E-2</v>
-      </c>
-      <c r="J27">
-        <v>0.103878853845691</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28">
-        <v>2.8627997909758399E-2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>0.41083599785007002</v>
-      </c>
-      <c r="E28">
-        <v>0.58524750637132705</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28">
-        <v>3.4506308360150299E-3</v>
-      </c>
-      <c r="H28">
-        <v>5.9901550425230602E-3</v>
-      </c>
-      <c r="I28">
-        <v>4.9236295954293102E-2</v>
-      </c>
-      <c r="J28">
-        <v>7.1663474184167006E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29">
-        <v>2.6175879687284E-2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29">
-        <v>4.48550204459644E-2</v>
-      </c>
-      <c r="E29">
-        <v>0.101091165482696</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29">
-        <v>1.9825189424521299E-4</v>
-      </c>
-      <c r="H29">
-        <v>3.4792820435274301E-4</v>
-      </c>
-      <c r="I29">
-        <v>4.5862968345802599E-2</v>
-      </c>
-      <c r="J29">
-        <v>6.4653305599673402E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30">
-        <v>2.1930963080822E-2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30">
-        <v>0.58666121249659797</v>
-      </c>
-      <c r="E30">
-        <v>0.71440196037892201</v>
-      </c>
-      <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30">
-        <v>3.0990098627568501E-3</v>
-      </c>
-      <c r="H30">
-        <v>3.1652954271026001E-3</v>
-      </c>
-      <c r="I30">
-        <v>3.8441952980103999E-2</v>
-      </c>
-      <c r="J30">
-        <v>5.0166117390234397E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31">
-        <v>2.1078473695745999E-2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31">
-        <v>0.80359152011818002</v>
-      </c>
-      <c r="E31">
-        <v>0.86058382650954002</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31">
-        <v>1.65058983551385E-3</v>
-      </c>
-      <c r="H31">
-        <v>2.8777837629713498E-3</v>
-      </c>
-      <c r="I31">
-        <v>3.5880598471465602E-2</v>
-      </c>
-      <c r="J31">
-        <v>8.6285787175387402E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32">
-        <v>1.7589472727060001E-2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>0.207817802936235</v>
-      </c>
-      <c r="E32">
-        <v>0.333673406522491</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32">
-        <v>5.4558594120994704E-3</v>
-      </c>
-      <c r="H32">
-        <v>7.8562510133876606E-3</v>
-      </c>
-      <c r="I32">
-        <v>2.7495432907393199E-2</v>
-      </c>
-      <c r="J32">
-        <v>8.7895014184604797E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33">
-        <v>1.7047481757926999E-2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33">
-        <v>0.75125620647961999</v>
-      </c>
-      <c r="E33">
-        <v>0.83981110466063003</v>
-      </c>
-      <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33">
-        <v>2.9014240137348502E-3</v>
-      </c>
-      <c r="H33">
-        <v>3.32756330601695E-3</v>
-      </c>
-      <c r="I33">
-        <v>3.01401140004318E-2</v>
-      </c>
-      <c r="J33">
-        <v>5.6296260992214603E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34">
-        <v>1.4785390728402001E-2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34">
-        <v>0.15604521955629799</v>
-      </c>
-      <c r="E34">
-        <v>0.26461036422498002</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34">
-        <v>2.2307822318789702E-3</v>
-      </c>
-      <c r="H34">
-        <v>3.9677395446072504E-3</v>
-      </c>
-      <c r="I34">
-        <v>2.6460360573278999E-2</v>
-      </c>
-      <c r="J34">
-        <v>3.4081020667756499E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35">
-        <v>1.4355180656539001E-2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35">
-        <v>0.96279104111812996</v>
-      </c>
-      <c r="E35">
-        <v>0.96279104111812996</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35">
-        <v>5.8409182176034197E-4</v>
-      </c>
-      <c r="H35">
-        <v>6.9402120565799201E-4</v>
-      </c>
-      <c r="I35">
-        <v>2.5044935807152498E-2</v>
-      </c>
-      <c r="J35">
-        <v>5.4572914528293201E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36">
-        <v>1.3991780271116999E-2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>3.2985046229377299E-2</v>
-      </c>
-      <c r="E36">
-        <v>8.0334548074773707E-2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36">
-        <v>2.4585735192489199E-2</v>
-      </c>
-      <c r="H36">
-        <v>2.0878994239653299E-2</v>
-      </c>
-      <c r="I36">
-        <v>1.6601315041592799E-4</v>
-      </c>
-      <c r="J36">
-        <v>2.85212015458988E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>1.3814631382657001E-2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7.3095973240113301E-5</v>
-      </c>
-      <c r="E37">
-        <v>1.22638799547301E-3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37">
-        <v>2.42042093421262E-2</v>
-      </c>
-      <c r="H37">
-        <v>1.8151119664909399E-2</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38">
-        <v>1.2916376909731001E-2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38">
-        <v>0.61840175232401495</v>
-      </c>
-      <c r="E38">
-        <v>0.74110051270576405</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38">
-        <v>7.9324550121608103E-3</v>
-      </c>
-      <c r="H38">
-        <v>6.1741032843926104E-3</v>
-      </c>
-      <c r="I38">
-        <v>2.2965283756392701E-2</v>
-      </c>
-      <c r="J38">
-        <v>4.13174449448242E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39">
-        <v>1.1051405265655999E-2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39">
-        <v>4.8880519637981197E-4</v>
-      </c>
-      <c r="E39">
-        <v>3.2174562700597602E-3</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39">
-        <v>1.07918155277056E-3</v>
-      </c>
-      <c r="H39">
-        <v>8.0655722384352505E-4</v>
-      </c>
-      <c r="I39">
-        <v>2.04420236848043E-2</v>
-      </c>
-      <c r="J39">
-        <v>1.88660684825274E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>1.0421659723501E-2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40">
-        <v>1.2922981424876199E-4</v>
-      </c>
-      <c r="E40">
-        <v>1.7739729046875501E-3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40">
-        <v>1.8267759990485601E-2</v>
-      </c>
-      <c r="H40">
-        <v>2.7183529853600199E-2</v>
-      </c>
-      <c r="I40" s="1">
-        <v>8.2765013573462197E-6</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2.7450049579184599E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>1.0320367298716999E-2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41">
-        <v>3.7104076560566599E-4</v>
-      </c>
-      <c r="E41">
-        <v>3.2174562700597602E-3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41">
-        <v>1.8082012010784999E-2</v>
-      </c>
-      <c r="H41">
-        <v>2.4247315843463201E-2</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42">
-        <v>6.8830540598152398E-2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <v>9.8350590935287793E-2</v>
-      </c>
-      <c r="E42">
-        <v>0.18459343769495201</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42">
-        <v>1.4975322975506399E-3</v>
-      </c>
-      <c r="H42">
-        <v>2.6250332111096698E-3</v>
-      </c>
-      <c r="I42">
-        <v>0.119709329630023</v>
-      </c>
-      <c r="J42">
-        <v>0.111508261074367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43">
-        <v>3.9215537593821598E-2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43">
-        <v>1.45742966312552E-2</v>
-      </c>
-      <c r="E43">
-        <v>4.2321515217683403E-2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>6.7918836092825396E-2</v>
-      </c>
-      <c r="J43">
-        <v>5.7760150102310899E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44">
-        <v>1.9646566741067999E-2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44">
-        <v>5.6085990599477199E-2</v>
-      </c>
-      <c r="E44">
-        <v>0.119281472965085</v>
-      </c>
-      <c r="F44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44">
-        <v>3.4506308360150299E-3</v>
-      </c>
-      <c r="H44">
-        <v>5.9901550425230602E-3</v>
-      </c>
-      <c r="I44">
-        <v>3.5189832214995699E-2</v>
-      </c>
-      <c r="J44">
-        <v>2.80717833059204E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45">
-        <v>1.3966463315076999E-2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45">
-        <v>2.02884319498266E-3</v>
-      </c>
-      <c r="E45">
-        <v>9.2834946194661101E-3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45">
-        <v>2.42042093421262E-2</v>
-      </c>
-      <c r="H45">
-        <v>1.8151119664909399E-2</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1.5176349177441899E-5</v>
-      </c>
-      <c r="J45" s="1">
-        <v>3.7174311643039798E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46">
-        <v>1.3914568737712E-2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46">
-        <v>0.31463679827511998</v>
-      </c>
-      <c r="E46">
-        <v>0.47510156539543102</v>
-      </c>
-      <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46">
-        <v>3.6522985873917902E-3</v>
-      </c>
-      <c r="H46">
-        <v>3.39034003782004E-3</v>
-      </c>
-      <c r="I46">
-        <v>2.29427608794921E-2</v>
-      </c>
-      <c r="J46">
-        <v>3.7514972223656302E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47">
-        <v>1.3200658060594001E-2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47">
-        <v>4.2220634805107899E-3</v>
-      </c>
-      <c r="E47">
-        <v>1.59217023184209E-2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47">
-        <v>1.47395159614253E-4</v>
-      </c>
-      <c r="H47">
-        <v>1.5181648095285199E-4</v>
-      </c>
-      <c r="I47">
-        <v>2.30066072408995E-2</v>
-      </c>
-      <c r="J47">
-        <v>3.8121565744719303E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48">
-        <v>1.2790561339291E-2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48">
-        <v>0.19231964557543901</v>
-      </c>
-      <c r="E48">
-        <v>0.31565507045534003</v>
-      </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48">
-        <v>2.4585735192489199E-2</v>
-      </c>
-      <c r="H48">
-        <v>2.0878994239653299E-2</v>
-      </c>
-      <c r="I48">
-        <v>6.2098987529292902E-3</v>
-      </c>
-      <c r="J48">
-        <v>6.6363583174351096E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49">
-        <v>1.1669882966829E-2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49">
-        <v>2.55609494822942E-3</v>
-      </c>
-      <c r="E49">
-        <v>1.1027723919504E-2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49">
-        <v>5.8150700294537603E-4</v>
-      </c>
-      <c r="H49">
-        <v>6.3220522825312598E-4</v>
-      </c>
-      <c r="I49">
-        <v>2.0793007777358201E-2</v>
-      </c>
-      <c r="J49">
-        <v>1.2150304131566401E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50">
-        <v>1.0765141214877001E-2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50">
-        <v>2.3495116627979601E-3</v>
-      </c>
-      <c r="E50">
-        <v>1.04345959141909E-2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="1">
-        <v>4.0157898298094501E-5</v>
-      </c>
-      <c r="H50" s="1">
-        <v>5.0086419716897801E-5</v>
-      </c>
-      <c r="I50">
-        <v>1.86847030595131E-2</v>
-      </c>
-      <c r="J50">
-        <v>1.2615755729719E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51">
-        <v>1.0659126140329E-2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51">
-        <v>2.69979606326019E-3</v>
-      </c>
-      <c r="E51">
-        <v>1.13241445986747E-2</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51">
-        <v>1.69591099101968E-4</v>
-      </c>
-      <c r="H51">
-        <v>1.04776558364639E-4</v>
-      </c>
-      <c r="I51">
+      <c r="G58" s="4">
+        <v>2.5109685025710101E-3</v>
+      </c>
+      <c r="H58" s="4">
+        <v>5.3450485094857E-3</v>
+      </c>
+      <c r="I58" s="4">
         <v>1.8630524842155601E-2</v>
       </c>
-      <c r="J51">
+      <c r="J58" s="4">
         <v>2.6263460365871301E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52">
-        <v>1.0440341186232001E-2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52">
-        <v>5.1829510104119498E-3</v>
-      </c>
-      <c r="E52">
-        <v>1.8268997577525301E-2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52">
-        <v>1.8082012010784999E-2</v>
-      </c>
-      <c r="H52">
-        <v>2.4247315843463201E-2</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>1.0301323435287999E-2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53">
-        <v>2.15403061630806E-2</v>
-      </c>
-      <c r="E53">
-        <v>5.6079072941813399E-2</v>
-      </c>
-      <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53">
-        <v>1.8267759990485601E-2</v>
-      </c>
-      <c r="H53">
-        <v>2.7183529853600199E-2</v>
-      </c>
-      <c r="I53">
-        <v>5.0836615284581901E-4</v>
-      </c>
-      <c r="J53">
-        <v>5.7972067170155705E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54">
-        <v>1.0045032547470001E-2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54">
-        <v>1.6020006947992801E-3</v>
-      </c>
-      <c r="E54">
-        <v>8.6393608898103907E-3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54">
-        <v>1.7397362397657701E-2</v>
-      </c>
-      <c r="H54">
-        <v>2.5513462455964E-2</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55">
-        <v>1.0042031194399E-2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55">
-        <v>0.42560515005911997</v>
-      </c>
-      <c r="E55">
-        <v>0.59505905239747303</v>
-      </c>
-      <c r="F55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55">
-        <v>7.8936027790464606E-3</v>
-      </c>
-      <c r="H55">
-        <v>1.78207753756057E-2</v>
-      </c>
-      <c r="I55">
-        <v>1.40087819918976E-2</v>
-      </c>
-      <c r="J55">
-        <v>2.2590813348787601E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56">
-        <v>0.1029936719082</v>
-      </c>
-      <c r="C56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56">
-        <v>1.78188695968566E-3</v>
-      </c>
-      <c r="E56">
-        <v>8.9688310304178107E-3</v>
-      </c>
-      <c r="F56" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56">
-        <v>3.95569875740395E-3</v>
-      </c>
-      <c r="H56">
-        <v>5.8410486104482897E-3</v>
-      </c>
-      <c r="I56">
-        <v>0.17586894198809999</v>
-      </c>
-      <c r="J56">
-        <v>0.186293759388517</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57">
-        <v>3.7332849799152003E-2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57">
-        <v>6.7437456873041699E-3</v>
-      </c>
-      <c r="E57">
-        <v>2.2137078234411502E-2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57">
-        <v>3.4610224249491902E-3</v>
-      </c>
-      <c r="H57">
-        <v>7.0322256248972603E-3</v>
-      </c>
-      <c r="I57">
-        <v>6.4106017817475103E-2</v>
-      </c>
-      <c r="J57">
-        <v>9.8531442561188301E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58">
-        <v>3.0589548875408001E-2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58">
-        <v>0.25642861777850601</v>
-      </c>
-      <c r="E58">
-        <v>0.39111839681368099</v>
-      </c>
-      <c r="F58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58">
-        <v>6.3057080978405899E-3</v>
-      </c>
-      <c r="H58">
-        <v>6.3884763385426598E-3</v>
-      </c>
-      <c r="I58">
-        <v>4.9461989674912901E-2</v>
-      </c>
-      <c r="J58">
-        <v>9.46978833190351E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>2.6751511253426001E-2</v>
+        <v>1.0301323435287999E-2</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1.5635688115679599E-6</v>
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>2.15403061630806E-2</v>
       </c>
       <c r="E59">
-        <v>2.36098890546761E-4</v>
+        <v>5.6079072941813399E-2</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G59">
-        <v>4.5104168223426701E-2</v>
+        <v>1.8267759990485601E-2</v>
       </c>
       <c r="H59">
-        <v>5.4603373338422898E-2</v>
-      </c>
-      <c r="I59" s="1">
-        <v>6.5627132881818696E-6</v>
-      </c>
-      <c r="J59" s="1">
-        <v>2.4555424652005201E-5</v>
+        <v>2.7183529853600199E-2</v>
+      </c>
+      <c r="I59">
+        <v>5.0836615284581901E-4</v>
+      </c>
+      <c r="J59">
+        <v>5.7972067170155705E-4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B60">
-        <v>2.2052270006887E-2</v>
+        <v>0.12033761946147301</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>3.35924776026016E-3</v>
+        <v>2.5598862269451999E-2</v>
       </c>
       <c r="E60">
-        <v>1.34753032504449E-2</v>
+        <v>6.5515732248936601E-2</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G60">
-        <v>3.7531835150754603E-2</v>
+        <v>0.17586894198809999</v>
       </c>
       <c r="H60">
-        <v>3.9626339196650401E-2</v>
+        <v>0.186293759388517</v>
       </c>
       <c r="I60">
-        <v>8.2062028454509602E-4</v>
+        <v>4.9236295954293102E-2</v>
       </c>
       <c r="J60">
-        <v>1.7707196365263601E-3</v>
+        <v>7.1663474184167006E-2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B61">
-        <v>2.1661274370690001E-2</v>
+        <v>3.4909059508263E-2</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D61">
-        <v>5.2091302533760701E-2</v>
+        <v>2.9680390006764101E-2</v>
       </c>
       <c r="E61">
-        <v>0.11236838117997</v>
+        <v>7.4695648183689706E-2</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G61">
-        <v>8.2754829902606797E-3</v>
+        <v>1.22201371473583E-2</v>
       </c>
       <c r="H61">
-        <v>1.51399238600376E-2</v>
+        <v>2.2473877250641001E-2</v>
       </c>
       <c r="I61">
-        <v>3.7618970016163301E-2</v>
+        <v>4.5862968345802599E-2</v>
       </c>
       <c r="J61">
-        <v>4.4177988373865197E-2</v>
+        <v>6.4653305599673402E-2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B62">
-        <v>2.0603813089908E-2</v>
+        <v>1.3991780271116999E-2</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>1.8377898751097299E-2</v>
+        <v>3.2985046229377299E-2</v>
       </c>
       <c r="E62">
-        <v>4.9554691275280199E-2</v>
+        <v>8.0334548074773707E-2</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G62">
-        <v>3.5127288487227901E-3</v>
+        <v>2.4585735192489199E-2</v>
       </c>
       <c r="H62">
-        <v>3.93530238619189E-3</v>
+        <v>2.0878994239653299E-2</v>
       </c>
       <c r="I62">
-        <v>3.64617641836599E-2</v>
+        <v>1.6601315041592799E-4</v>
       </c>
       <c r="J62">
-        <v>3.5359845530699797E-2</v>
+        <v>2.85212015458988E-4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>1.8254957186359999E-2</v>
+        <v>2.0113921400263999E-2</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
       </c>
       <c r="D63">
-        <v>5.2024297737323696E-3</v>
+        <v>3.2509444645719303E-2</v>
       </c>
       <c r="E63">
-        <v>1.8268997577525301E-2</v>
+        <v>8.0334548074773707E-2</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -3346,203 +3374,203 @@
       <c r="H63">
         <v>7.4878364619457793E-2</v>
       </c>
-      <c r="I63" s="1">
-        <v>6.5106709897521999E-6</v>
-      </c>
-      <c r="J63" s="1">
-        <v>2.4360700201661101E-5</v>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>1.6051971051331E-2</v>
+        <v>2.0907024717856E-2</v>
       </c>
       <c r="C64" t="s">
         <v>42</v>
       </c>
       <c r="D64">
-        <v>9.6401347539152402E-2</v>
+        <v>3.4451465032412303E-2</v>
       </c>
       <c r="E64">
-        <v>0.18426080352420299</v>
+        <v>8.2574146347527896E-2</v>
       </c>
       <c r="F64" t="s">
         <v>43</v>
       </c>
       <c r="G64">
-        <v>6.5022642385887796E-3</v>
+        <v>2.7227439688311199E-2</v>
       </c>
       <c r="H64">
-        <v>1.09158978823139E-2</v>
+        <v>3.8024556272194802E-2</v>
       </c>
       <c r="I64">
-        <v>2.7227439688311199E-2</v>
+        <v>9.7138669612899103E-3</v>
       </c>
       <c r="J64">
-        <v>3.8024556272194802E-2</v>
+        <v>2.0161926709785099E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>1.5491939259112001E-2</v>
+        <v>3.7284557028020998E-2</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="1">
-        <v>4.5855425360259399E-5</v>
+        <v>35</v>
+      </c>
+      <c r="D65">
+        <v>3.5309792801802402E-2</v>
       </c>
       <c r="E65">
-        <v>8.6552115367489601E-4</v>
+        <v>8.3309042391752505E-2</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G65">
-        <v>2.6129913242207901E-2</v>
+        <v>6.4106017817475103E-2</v>
       </c>
       <c r="H65">
-        <v>4.8934249461808202E-2</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1.9832000196703401E-5</v>
-      </c>
-      <c r="J65" s="1">
-        <v>5.3669750959294597E-5</v>
+        <v>9.8531442561188301E-2</v>
+      </c>
+      <c r="I65">
+        <v>8.1042063620943398E-3</v>
+      </c>
+      <c r="J65">
+        <v>1.26536214774201E-2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>1.4815705183973E-2</v>
+        <v>1.4312253014622099E-2</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>0.92848369916984397</v>
+        <v>3.6104079874027001E-2</v>
       </c>
       <c r="E66">
-        <v>0.942845683870844</v>
+        <v>8.38725547842782E-2</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G66">
-        <v>4.5233476977205103E-3</v>
+        <v>2.4585735192489199E-2</v>
       </c>
       <c r="H66">
-        <v>6.5717434434247497E-3</v>
+        <v>2.0878994239653299E-2</v>
       </c>
       <c r="I66">
-        <v>2.24380546348984E-2</v>
+        <v>6.8334783289324599E-3</v>
       </c>
       <c r="J66">
-        <v>5.4540569936595097E-2</v>
+        <v>1.49190838451568E-2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>1.3739199923438E-2</v>
+        <v>1.3856000912915001E-2</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
       </c>
       <c r="D67">
-        <v>3.45551132991686E-3</v>
+        <v>4.33391346827511E-2</v>
       </c>
       <c r="E67">
-        <v>1.34753032504449E-2</v>
+        <v>9.9154686925688101E-2</v>
       </c>
       <c r="F67" t="s">
         <v>24</v>
       </c>
       <c r="G67">
+        <v>6.5422166332640397E-4</v>
+      </c>
+      <c r="H67">
+        <v>6.0078639043619603E-4</v>
+      </c>
+      <c r="I67">
         <v>2.32386461488088E-2</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>2.6678092245348901E-2</v>
-      </c>
-      <c r="I67">
-        <v>1.49870699321712E-4</v>
-      </c>
-      <c r="J67">
-        <v>1.7728164816121299E-4</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>1.3738282099586999E-2</v>
+        <v>2.6175879687284E-2</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D68">
-        <v>5.8791151859263799E-2</v>
+        <v>4.48550204459644E-2</v>
       </c>
       <c r="E68">
-        <v>0.121609094941765</v>
+        <v>0.101091165482696</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G68">
-        <v>2.3410531699338499E-2</v>
+        <v>1.9825189424521299E-4</v>
       </c>
       <c r="H68">
-        <v>3.1438683796349301E-2</v>
+        <v>3.4792820435274301E-4</v>
       </c>
       <c r="I68">
-        <v>1.3389304925943599E-3</v>
+        <v>4.5862968345802599E-2</v>
       </c>
       <c r="J68">
-        <v>2.2789795494030898E-3</v>
+        <v>6.4653305599673402E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>1.223896588776E-2</v>
+        <v>1.013837111927E-2</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D69">
-        <v>0.23432237550791701</v>
+        <v>4.8406019176147702E-2</v>
       </c>
       <c r="E69">
-        <v>0.36476988352263401</v>
+        <v>0.107489836699975</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G69">
-        <v>8.6890526240978906E-3</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1.28030919391209E-2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1.50365665327396E-2</v>
+        <v>1.7134161611742901E-2</v>
       </c>
       <c r="J69">
-        <v>3.7408323963710598E-2</v>
+        <v>2.81971241751964E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3550,831 +3578,831 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <v>1.0129759223923E-2</v>
+        <v>2.1661274370690001E-2</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D70">
-        <v>0.93035766156791899</v>
+        <v>5.2091302533760701E-2</v>
       </c>
       <c r="E70">
-        <v>0.942845683870844</v>
+        <v>0.11236838117997</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G70">
-        <v>6.7043083034034499E-3</v>
+        <v>8.2754829902606797E-3</v>
       </c>
       <c r="H70">
-        <v>7.2999305922797804E-3</v>
+        <v>1.51399238600376E-2</v>
       </c>
       <c r="I70">
-        <v>1.6819646770612099E-2</v>
+        <v>3.7618970016163301E-2</v>
       </c>
       <c r="J70">
-        <v>2.8682023386485699E-2</v>
+        <v>4.4177988373865197E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>6.5480738776680605E-2</v>
+        <v>1.286157592683E-2</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D71">
-        <v>1.3871294952352801E-3</v>
+        <v>5.1549174879067801E-2</v>
       </c>
       <c r="E71">
-        <v>8.0219554449911298E-3</v>
+        <v>0.11236838117997</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G71">
-        <v>3.4610224249491902E-3</v>
+        <v>1.2686402019067001E-2</v>
       </c>
       <c r="H71">
-        <v>7.0322256248972603E-3</v>
+        <v>2.2073026367590901E-2</v>
       </c>
       <c r="I71">
-        <v>0.112983569938599</v>
+        <v>1.86847030595131E-2</v>
       </c>
       <c r="J71">
-        <v>0.13087528343695901</v>
+        <v>1.2615755729719E-2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B72">
-        <v>3.1501819048861103E-2</v>
+        <v>1.9646566741067999E-2</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D72">
-        <v>0.51506036245586295</v>
+        <v>5.6085990599477199E-2</v>
       </c>
       <c r="E72">
-        <v>0.65910266721046795</v>
+        <v>0.119281472965085</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
       </c>
       <c r="G72">
-        <v>6.3057080978405899E-3</v>
+        <v>3.4506308360150299E-3</v>
       </c>
       <c r="H72">
-        <v>6.3884763385426598E-3</v>
+        <v>5.9901550425230602E-3</v>
       </c>
       <c r="I72">
-        <v>5.2133127653374502E-2</v>
+        <v>3.5189832214995699E-2</v>
       </c>
       <c r="J72">
-        <v>0.103878853845691</v>
+        <v>2.80717833059204E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B73">
-        <v>2.9708941091723302E-2</v>
+        <v>2.0701651326056E-2</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D73">
-        <v>0.79231317671008805</v>
+        <v>5.7035578225762197E-2</v>
       </c>
       <c r="E73">
-        <v>0.85456635488016597</v>
+        <v>0.119616282112362</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G73">
-        <v>3.95569875740395E-3</v>
+        <v>3.0990098627568501E-3</v>
       </c>
       <c r="H73">
-        <v>5.8410486104482897E-3</v>
+        <v>3.1652954271026001E-3</v>
       </c>
       <c r="I73">
-        <v>4.9236295954293102E-2</v>
+        <v>3.7618970016163301E-2</v>
       </c>
       <c r="J73">
-        <v>7.1663474184167006E-2</v>
+        <v>4.4177988373865197E-2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>2.7201918040467999E-2</v>
+        <v>1.3738282099586999E-2</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>9.9041611679263099E-3</v>
+        <v>5.8791151859263799E-2</v>
       </c>
       <c r="E74">
-        <v>3.11568403407682E-2</v>
+        <v>0.121609094941765</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G74">
-        <v>9.1008061842888196E-4</v>
+        <v>2.3410531699338499E-2</v>
       </c>
       <c r="H74">
-        <v>3.0217096353238899E-3</v>
+        <v>3.1438683796349301E-2</v>
       </c>
       <c r="I74">
-        <v>4.5862968345802599E-2</v>
+        <v>1.3389304925943599E-3</v>
       </c>
       <c r="J74">
-        <v>6.4653305599673402E-2</v>
+        <v>2.2789795494030898E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>2.6641117986104999E-2</v>
+        <v>7.0813034813166698E-2</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1.2290322210248401E-5</v>
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>7.1241511627766596E-2</v>
       </c>
       <c r="E75">
-        <v>3.3458385619226401E-4</v>
+        <v>0.145371192645848</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75">
-        <v>4.5104168223426701E-2</v>
+        <v>15</v>
+      </c>
+      <c r="G75" s="1">
+        <v>9.93140370054076E-5</v>
       </c>
       <c r="H75">
-        <v>5.4603373338422898E-2</v>
-      </c>
-      <c r="I75" s="1">
-        <v>1.6604182899736499E-5</v>
-      </c>
-      <c r="J75" s="1">
-        <v>3.6942710237724101E-5</v>
+        <v>1.4356956975942E-4</v>
+      </c>
+      <c r="I75">
+        <v>0.119709329630023</v>
+      </c>
+      <c r="J75">
+        <v>0.111508261074367</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>2.3172272665872001E-2</v>
+        <v>2.1367812286431E-2</v>
       </c>
       <c r="C76" t="s">
         <v>38</v>
       </c>
       <c r="D76">
-        <v>0.499793660080603</v>
+        <v>8.2800817475260594E-2</v>
       </c>
       <c r="E76">
-        <v>0.65910266721046795</v>
+        <v>0.16520312282383601</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
       <c r="G76">
-        <v>8.2754829902606797E-3</v>
+        <v>3.7618970016163301E-2</v>
       </c>
       <c r="H76">
-        <v>1.51399238600376E-2</v>
+        <v>4.4177988373865197E-2</v>
       </c>
       <c r="I76">
-        <v>3.8441952980103999E-2</v>
+        <v>4.8450271424062301E-3</v>
       </c>
       <c r="J76">
-        <v>5.0166117390234397E-2</v>
+        <v>4.8168463644479402E-3</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>2.2141416764108999E-2</v>
+        <v>2.0544307319071999E-2</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D77">
-        <v>1.93252894761882E-3</v>
+        <v>8.3148591619943799E-2</v>
       </c>
       <c r="E77">
-        <v>9.1666993768887498E-3</v>
+        <v>0.16520312282383601</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G77">
-        <v>3.7531835150754603E-2</v>
+        <v>3.64617641836599E-2</v>
       </c>
       <c r="H77">
-        <v>3.9626339196650401E-2</v>
-      </c>
-      <c r="I77" s="1">
-        <v>9.93140370054076E-5</v>
+        <v>3.5359845530699797E-2</v>
+      </c>
+      <c r="I77">
+        <v>8.5093758687631998E-3</v>
       </c>
       <c r="J77">
-        <v>1.4356956975942E-4</v>
+        <v>1.2485542303576701E-2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B78">
-        <v>2.1687371322611001E-2</v>
+        <v>4.3994892388041697E-2</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D78">
-        <v>0.245911203576437</v>
+        <v>9.2695802557812498E-2</v>
       </c>
       <c r="E78">
-        <v>0.37890399734736702</v>
+        <v>0.18178008034064499</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G78">
-        <v>1.2454441166050099E-2</v>
+        <v>1.81812646298787E-3</v>
       </c>
       <c r="H78">
-        <v>3.3621188285012503E-2</v>
+        <v>2.4072113801245701E-3</v>
       </c>
       <c r="I78">
-        <v>2.7495432907393199E-2</v>
+        <v>6.7918836092825396E-2</v>
       </c>
       <c r="J78">
-        <v>8.7895014184604797E-2</v>
+        <v>5.7760150102310899E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79">
-        <v>2.1203270813778999E-2</v>
+        <v>1.6051971051331E-2</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D79">
-        <v>0.32616098200305099</v>
+        <v>9.6401347539152402E-2</v>
       </c>
       <c r="E79">
-        <v>0.48762681467782798</v>
+        <v>0.18426080352420299</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" s="1">
-        <v>6.1682704169750799E-6</v>
-      </c>
-      <c r="H79" s="1">
-        <v>2.3889608599848399E-5</v>
+        <v>43</v>
+      </c>
+      <c r="G79">
+        <v>6.5022642385887796E-3</v>
+      </c>
+      <c r="H79">
+        <v>1.09158978823139E-2</v>
       </c>
       <c r="I79">
-        <v>3.5880598471465602E-2</v>
+        <v>2.7227439688311199E-2</v>
       </c>
       <c r="J79">
-        <v>8.6285787175387402E-2</v>
+        <v>3.8024556272194802E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B80">
-        <v>1.8691540756753999E-2</v>
+        <v>4.0070053845299998E-2</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D80">
-        <v>0.131637114590543</v>
+        <v>9.5663244308223594E-2</v>
       </c>
       <c r="E80">
-        <v>0.228436376290967</v>
+        <v>0.18426080352420299</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G80">
-        <v>5.2358459038843496E-3</v>
+        <v>5.9760721843895095E-4</v>
       </c>
       <c r="H80">
-        <v>9.6887142017910294E-3</v>
+        <v>8.9842568055987398E-4</v>
       </c>
       <c r="I80">
-        <v>3.01401140004318E-2</v>
+        <v>6.7918836092825396E-2</v>
       </c>
       <c r="J80">
-        <v>5.6296260992214603E-2</v>
+        <v>5.7760150102310899E-2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B81">
-        <v>1.818360597486E-2</v>
+        <v>1.2847367076451999E-2</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D81">
-        <v>1.5766131036156199E-2</v>
+        <v>9.9020320882722598E-2</v>
       </c>
       <c r="E81">
-        <v>4.4918599744520601E-2</v>
+        <v>0.18459343769495201</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81">
-        <v>3.0774577979853501E-2</v>
-      </c>
-      <c r="H81">
-        <v>7.4878364619457793E-2</v>
-      </c>
-      <c r="I81" s="1">
-        <v>8.3494756529289898E-6</v>
-      </c>
-      <c r="J81" s="1">
-        <v>2.76920779369731E-5</v>
+        <v>45</v>
+      </c>
+      <c r="G81" s="1">
+        <v>6.7198158642202703E-5</v>
+      </c>
+      <c r="H81" s="1">
+        <v>7.12004066528599E-5</v>
+      </c>
+      <c r="I81">
+        <v>2.24380546348984E-2</v>
+      </c>
+      <c r="J81">
+        <v>5.4540569936595097E-2</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B82">
-        <v>1.7740592817345999E-2</v>
+        <v>6.8830540598152398E-2</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D82">
-        <v>0.392628494361771</v>
+        <v>9.8350590935287793E-2</v>
       </c>
       <c r="E82">
-        <v>0.56463716808216602</v>
+        <v>0.18459343769495201</v>
       </c>
       <c r="F82" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G82">
-        <v>8.6890526240978906E-3</v>
+        <v>1.4975322975506399E-3</v>
       </c>
       <c r="H82">
-        <v>1.28030919391209E-2</v>
+        <v>2.6250332111096698E-3</v>
       </c>
       <c r="I82">
-        <v>2.5044935807152498E-2</v>
+        <v>0.119709329630023</v>
       </c>
       <c r="J82">
-        <v>5.4572914528293201E-2</v>
+        <v>0.111508261074367</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B83">
-        <v>1.5864734064801E-2</v>
+        <v>7.1646048240942298E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D83">
-        <v>0.17460820831138699</v>
+        <v>0.10934041797888901</v>
       </c>
       <c r="E83">
-        <v>0.28973449950570801</v>
+        <v>0.201346379448929</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G83">
-        <v>5.1029828377636196E-3</v>
+        <v>8.2062028454509602E-4</v>
       </c>
       <c r="H83">
-        <v>1.25387474163682E-2</v>
+        <v>1.7707196365263601E-3</v>
       </c>
       <c r="I83">
-        <v>2.6460360573278999E-2</v>
+        <v>0.119709329630023</v>
       </c>
       <c r="J83">
-        <v>3.4081020667756499E-2</v>
+        <v>0.111508261074367</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B84">
-        <v>1.5425799284123E-2</v>
+        <v>1.5459885288766E-2</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D84">
-        <v>3.1042436511621798E-4</v>
+        <v>0.11706612320357</v>
       </c>
       <c r="E84">
-        <v>3.1067123294954398E-3</v>
+        <v>0.210440292901655</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G84">
-        <v>2.6129913242207901E-2</v>
+        <v>5.2167116382532898E-4</v>
       </c>
       <c r="H84">
-        <v>4.8934249461808202E-2</v>
-      </c>
-      <c r="I84" s="1">
-        <v>3.31248558593182E-5</v>
-      </c>
-      <c r="J84" s="1">
-        <v>6.1329330535177606E-5</v>
+        <v>6.0605589497870495E-4</v>
+      </c>
+      <c r="I84">
+        <v>2.7227439688311199E-2</v>
+      </c>
+      <c r="J84">
+        <v>3.8024556272194802E-2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B85">
-        <v>1.3726620849574E-2</v>
+        <v>1.5429513916636E-2</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D85">
-        <v>1.03611500183703E-2</v>
+        <v>0.115714569688031</v>
       </c>
       <c r="E85">
-        <v>3.19292582198758E-2</v>
+        <v>0.210440292901655</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G85">
-        <v>2.3410531699338499E-2</v>
+        <v>2.7227439688311199E-2</v>
       </c>
       <c r="H85">
-        <v>3.1438683796349301E-2</v>
+        <v>3.8024556272194802E-2</v>
       </c>
       <c r="I85">
-        <v>4.2353093331845202E-4</v>
+        <v>3.80222340782034E-3</v>
       </c>
       <c r="J85">
-        <v>6.0957730998738096E-4</v>
+        <v>3.01194653718833E-3</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B86">
-        <v>1.3707866296266E-2</v>
+        <v>2.2122011626355999E-2</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D86">
-        <v>1.94261178847973E-3</v>
+        <v>0.127752229789589</v>
       </c>
       <c r="E86">
-        <v>9.1666993768887498E-3</v>
+        <v>0.22430914765381299</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G86">
-        <v>2.32386461488088E-2</v>
+        <v>3.95569875740395E-3</v>
       </c>
       <c r="H86">
-        <v>2.6678092245348901E-2</v>
-      </c>
-      <c r="I86" s="1">
-        <v>7.4644527047648606E-5</v>
+        <v>5.8410486104482897E-3</v>
+      </c>
+      <c r="I86">
+        <v>3.5189832214995699E-2</v>
       </c>
       <c r="J86">
-        <v>1.27721295891486E-4</v>
+        <v>2.80717833059204E-2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B87">
-        <v>1.3602972588617E-2</v>
+        <v>9.7565204660196705E-2</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D87">
-        <v>0.69704238147460795</v>
+        <v>0.126903250130109</v>
       </c>
       <c r="E87">
-        <v>0.81008638543406897</v>
+        <v>0.22430914765381299</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G87">
-        <v>6.7043083034034499E-3</v>
+        <v>0.17586894198809999</v>
       </c>
       <c r="H87">
-        <v>7.2999305922797804E-3</v>
+        <v>0.186293759388517</v>
       </c>
       <c r="I87">
-        <v>2.2965283756392701E-2</v>
+        <v>3.5189832214995699E-2</v>
       </c>
       <c r="J87">
-        <v>4.13174449448242E-2</v>
+        <v>2.80717833059204E-2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B88">
-        <v>1.0839988182833001E-2</v>
+        <v>2.8942348141859E-2</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D88">
-        <v>6.6098339701294799E-4</v>
+        <v>0.13312848419605999</v>
       </c>
       <c r="E88">
-        <v>3.9923397179582104E-3</v>
+        <v>0.228436376290967</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G88">
-        <v>3.73056046286646E-3</v>
+        <v>2.96281993056133E-3</v>
       </c>
       <c r="H88">
-        <v>6.3935557478461396E-3</v>
+        <v>5.3984693086661303E-3</v>
       </c>
       <c r="I88">
-        <v>2.04420236848043E-2</v>
+        <v>4.9461989674912901E-2</v>
       </c>
       <c r="J88">
-        <v>1.88660684825274E-2</v>
+        <v>9.46978833190351E-2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89">
-        <v>7.0748497069425306E-2</v>
+        <v>1.8691540756753999E-2</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D89">
-        <v>0.209926977613487</v>
+        <v>0.131637114590543</v>
       </c>
       <c r="E89">
-        <v>0.333673406522491</v>
+        <v>0.228436376290967</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G89">
-        <v>3.7531835150754603E-2</v>
+        <v>5.2358459038843496E-3</v>
       </c>
       <c r="H89">
-        <v>3.9626339196650401E-2</v>
+        <v>9.6887142017910294E-3</v>
       </c>
       <c r="I89">
-        <v>0.119709329630023</v>
+        <v>3.01401140004318E-2</v>
       </c>
       <c r="J89">
-        <v>0.111508261074367</v>
+        <v>5.6296260992214603E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B90">
-        <v>4.3994892388041697E-2</v>
+        <v>1.4785390728402001E-2</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D90">
-        <v>9.2695802557812498E-2</v>
+        <v>0.15604521955629799</v>
       </c>
       <c r="E90">
-        <v>0.18178008034064499</v>
+        <v>0.26461036422498002</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G90">
-        <v>1.81812646298787E-3</v>
+        <v>2.2307822318789702E-3</v>
       </c>
       <c r="H90">
-        <v>2.4072113801245701E-3</v>
+        <v>3.9677395446072504E-3</v>
       </c>
       <c r="I90">
-        <v>6.7918836092825396E-2</v>
+        <v>2.6460360573278999E-2</v>
       </c>
       <c r="J90">
-        <v>5.7760150102310899E-2</v>
+        <v>3.4081020667756499E-2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B91">
-        <v>2.9479581980431002E-2</v>
+        <v>4.0387744794713999E-2</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D91">
-        <v>3.9448429004079402E-4</v>
+        <v>0.15771478662416</v>
       </c>
       <c r="E91">
-        <v>3.2174562700597602E-3</v>
+        <v>0.26461036422498002</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G91">
-        <v>4.5104168223426701E-2</v>
+        <v>1.77430665530568E-3</v>
       </c>
       <c r="H91">
-        <v>5.4603373338422898E-2</v>
+        <v>2.1307946547247198E-3</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>6.7918836092825396E-2</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>5.7760150102310899E-2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92">
-        <v>2.2122011626355999E-2</v>
+        <v>1.5864734064801E-2</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D92">
-        <v>0.127752229789589</v>
+        <v>0.17460820831138699</v>
       </c>
       <c r="E92">
-        <v>0.22430914765381299</v>
+        <v>0.28973449950570801</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G92">
-        <v>3.95569875740395E-3</v>
+        <v>5.1029828377636196E-3</v>
       </c>
       <c r="H92">
-        <v>5.8410486104482897E-3</v>
+        <v>1.25387474163682E-2</v>
       </c>
       <c r="I92">
-        <v>3.5189832214995699E-2</v>
+        <v>2.6460360573278999E-2</v>
       </c>
       <c r="J92">
-        <v>2.80717833059204E-2</v>
+        <v>3.4081020667756499E-2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B93">
-        <v>2.1315927836244999E-2</v>
+        <v>1.2790561339291E-2</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D93">
-        <v>0.47538399219175798</v>
+        <v>0.19231964557543901</v>
       </c>
       <c r="E93">
-        <v>0.64669353892752701</v>
+        <v>0.31565507045534003</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G93">
-        <v>2.3410531699338499E-2</v>
+        <v>2.4585735192489199E-2</v>
       </c>
       <c r="H93">
-        <v>3.1438683796349301E-2</v>
+        <v>2.0878994239653299E-2</v>
       </c>
       <c r="I93">
-        <v>2.29427608794921E-2</v>
+        <v>6.2098987529292902E-3</v>
       </c>
       <c r="J93">
-        <v>3.7514972223656302E-2</v>
+        <v>6.6363583174351096E-3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B94">
-        <v>2.0113921400263999E-2</v>
+        <v>3.5515027613919302E-2</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D94">
-        <v>3.2509444645719303E-2</v>
+        <v>0.20469795356714801</v>
       </c>
       <c r="E94">
-        <v>8.0334548074773707E-2</v>
+        <v>0.33235904288859502</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G94">
-        <v>3.0774577979853501E-2</v>
+        <v>5.3532921644549496E-3</v>
       </c>
       <c r="H94">
-        <v>7.4878364619457793E-2</v>
+        <v>5.4322289554097902E-3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>6.4106017817475103E-2</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>9.8531442561188301E-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B95">
-        <v>1.6308524621846999E-2</v>
+        <v>1.7589472727060001E-2</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D95">
-        <v>0.53328356150817402</v>
+        <v>0.207817802936235</v>
       </c>
       <c r="E95">
-        <v>0.66550262634491097</v>
+        <v>0.333673406522491</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G95">
-        <v>2.6129913242207901E-2</v>
+        <v>5.4558594120994704E-3</v>
       </c>
       <c r="H95">
-        <v>4.8934249461808202E-2</v>
+        <v>7.8562510133876606E-3</v>
       </c>
       <c r="I95">
-        <v>9.1410824916118294E-3</v>
+        <v>2.7495432907393199E-2</v>
       </c>
       <c r="J95">
-        <v>1.04945353237019E-2</v>
+        <v>8.7895014184604797E-2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4382,287 +4410,287 @@
         <v>69</v>
       </c>
       <c r="B96">
-        <v>1.5341773241758999E-2</v>
+        <v>7.0748497069425306E-2</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>0.93794745684296699</v>
+        <v>0.209926977613487</v>
       </c>
       <c r="E96">
-        <v>0.94420043988858704</v>
+        <v>0.333673406522491</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G96">
-        <v>9.3537540130922692E-3</v>
+        <v>3.7531835150754603E-2</v>
       </c>
       <c r="H96">
-        <v>1.17333859263516E-2</v>
+        <v>3.9626339196650401E-2</v>
       </c>
       <c r="I96">
-        <v>2.30066072408995E-2</v>
+        <v>0.119709329630023</v>
       </c>
       <c r="J96">
-        <v>3.8121565744719303E-2</v>
+        <v>0.111508261074367</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B97">
-        <v>1.4699410121355999E-2</v>
+        <v>8.3339779422806001E-2</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D97">
-        <v>0.39118897122740898</v>
+        <v>0.228439808988674</v>
       </c>
       <c r="E97">
-        <v>0.56463716808216602</v>
+        <v>0.35931678288843499</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G97">
-        <v>2.32386461488088E-2</v>
+        <v>6.4106017817475103E-2</v>
       </c>
       <c r="H97">
-        <v>2.6678092245348901E-2</v>
+        <v>9.8531442561188301E-2</v>
       </c>
       <c r="I97">
-        <v>5.9780414426372497E-3</v>
+        <v>0.112983569938599</v>
       </c>
       <c r="J97">
-        <v>7.6821995451955604E-3</v>
+        <v>0.13087528343695901</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B98">
-        <v>1.286157592683E-2</v>
+        <v>1.223896588776E-2</v>
       </c>
       <c r="C98" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D98">
-        <v>5.1549174879067801E-2</v>
+        <v>0.23432237550791701</v>
       </c>
       <c r="E98">
-        <v>0.11236838117997</v>
+        <v>0.36476988352263401</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G98">
-        <v>1.2686402019067001E-2</v>
+        <v>8.6890526240978906E-3</v>
       </c>
       <c r="H98">
-        <v>2.2073026367590901E-2</v>
+        <v>1.28030919391209E-2</v>
       </c>
       <c r="I98">
-        <v>1.86847030595131E-2</v>
+        <v>1.50365665327396E-2</v>
       </c>
       <c r="J98">
-        <v>1.2615755729719E-2</v>
+        <v>3.7408323963710598E-2</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B99">
-        <v>1.2817307114456E-2</v>
+        <v>2.1687371322611001E-2</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D99">
-        <v>4.9007612060512895E-4</v>
+        <v>0.245911203576437</v>
       </c>
       <c r="E99">
-        <v>3.2174562700597602E-3</v>
+        <v>0.37890399734736702</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G99">
-        <v>1.3281288272869399E-3</v>
+        <v>1.2454441166050099E-2</v>
       </c>
       <c r="H99">
-        <v>3.3160315197191701E-3</v>
+        <v>3.3621188285012503E-2</v>
       </c>
       <c r="I99">
-        <v>2.0793007777358201E-2</v>
+        <v>2.7495432907393199E-2</v>
       </c>
       <c r="J99">
-        <v>1.2150304131566401E-2</v>
+        <v>8.7895014184604797E-2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B100">
-        <v>1.188871546547E-2</v>
+        <v>3.0589548875408001E-2</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D100">
-        <v>1.8732509331271699E-2</v>
+        <v>0.25642861777850601</v>
       </c>
       <c r="E100">
-        <v>4.9624717702140803E-2</v>
+        <v>0.39111839681368099</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G100">
-        <v>2.5109685025710101E-3</v>
+        <v>6.3057080978405899E-3</v>
       </c>
       <c r="H100">
-        <v>5.3450485094857E-3</v>
+        <v>6.3884763385426598E-3</v>
       </c>
       <c r="I100">
-        <v>1.8630524842155601E-2</v>
+        <v>4.9461989674912901E-2</v>
       </c>
       <c r="J100">
-        <v>2.6263460365871301E-2</v>
+        <v>9.46978833190351E-2</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B101">
-        <v>1.1828981378859E-2</v>
+        <v>1.3914568737712E-2</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D101">
-        <v>0.71064414825468503</v>
+        <v>0.31463679827511998</v>
       </c>
       <c r="E101">
-        <v>0.81913943806456002</v>
+        <v>0.47510156539543102</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G101">
-        <v>2.8904795613615402E-3</v>
+        <v>3.6522985873917902E-3</v>
       </c>
       <c r="H101">
-        <v>9.3403890299074196E-3</v>
+        <v>3.39034003782004E-3</v>
       </c>
       <c r="I101">
-        <v>1.7134161611742901E-2</v>
+        <v>2.29427608794921E-2</v>
       </c>
       <c r="J101">
-        <v>2.81971241751964E-2</v>
+        <v>3.7514972223656302E-2</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102">
-        <v>1.1626192526804999E-2</v>
+        <v>2.1203270813778999E-2</v>
       </c>
       <c r="C102" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D102">
-        <v>0.77307114932336196</v>
+        <v>0.32616098200305099</v>
       </c>
       <c r="E102">
-        <v>0.83981110466063003</v>
+        <v>0.48762681467782798</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102">
-        <v>4.0600106815346301E-3</v>
-      </c>
-      <c r="H102">
-        <v>7.0350852171765102E-3</v>
+        <v>34</v>
+      </c>
+      <c r="G102" s="1">
+        <v>6.1682704169750799E-6</v>
+      </c>
+      <c r="H102" s="1">
+        <v>2.3889608599848399E-5</v>
       </c>
       <c r="I102">
-        <v>1.6465439399829598E-2</v>
+        <v>3.5880598471465602E-2</v>
       </c>
       <c r="J102">
-        <v>2.6668724533579099E-2</v>
+        <v>8.6285787175387402E-2</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B103">
-        <v>1.0453764549483E-2</v>
+        <v>1.7801975113363001E-2</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D103">
-        <v>0.52869498675774795</v>
+        <v>0.36571229628151303</v>
       </c>
       <c r="E103">
-        <v>0.66527452500349904</v>
+        <v>0.541397615083416</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G103">
-        <v>1.3071953652384999E-2</v>
+        <v>3.01401140004318E-2</v>
       </c>
       <c r="H103">
-        <v>1.99105731250344E-2</v>
+        <v>5.6296260992214603E-2</v>
       </c>
       <c r="I103">
-        <v>9.5676910357548797E-3</v>
+        <v>1.9036175140890799E-3</v>
       </c>
       <c r="J103">
-        <v>1.24820271759453E-2</v>
+        <v>2.5426315881437599E-3</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B104">
-        <v>1.0381321188527E-2</v>
+        <v>1.7740592817345999E-2</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D104">
-        <v>0.90164555140631897</v>
+        <v>0.392628494361771</v>
       </c>
       <c r="E104">
-        <v>0.93252382371475395</v>
+        <v>0.56463716808216602</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G104">
-        <v>5.6011678007892602E-3</v>
+        <v>8.6890526240978906E-3</v>
       </c>
       <c r="H104">
-        <v>9.6280250729929295E-3</v>
+        <v>1.28030919391209E-2</v>
       </c>
       <c r="I104">
-        <v>1.40087819918976E-2</v>
+        <v>2.5044935807152498E-2</v>
       </c>
       <c r="J104">
-        <v>2.2590813348787601E-2</v>
+        <v>5.4572914528293201E-2</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4670,383 +4698,383 @@
         <v>69</v>
       </c>
       <c r="B105">
-        <v>1.01106410716E-2</v>
+        <v>1.4699410121355999E-2</v>
       </c>
       <c r="C105" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D105">
-        <v>0.48065870290092699</v>
+        <v>0.39118897122740898</v>
       </c>
       <c r="E105">
-        <v>0.64803092980392796</v>
+        <v>0.56463716808216602</v>
       </c>
       <c r="F105" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G105">
-        <v>1.0792053443519E-2</v>
+        <v>2.32386461488088E-2</v>
       </c>
       <c r="H105">
-        <v>1.6828647361571501E-2</v>
+        <v>2.6678092245348901E-2</v>
       </c>
       <c r="I105">
-        <v>1.31362640183652E-2</v>
+        <v>5.9780414426372497E-3</v>
       </c>
       <c r="J105">
-        <v>1.61931355061215E-2</v>
+        <v>7.6821995451955604E-3</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B106">
-        <v>0.12033761946147301</v>
+        <v>1.0282173822082999E-2</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D106">
-        <v>2.5598862269451999E-2</v>
+        <v>0.38584063131095597</v>
       </c>
       <c r="E106">
-        <v>6.5515732248936601E-2</v>
+        <v>0.56463716808216602</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106">
-        <v>0.17586894198809999</v>
-      </c>
-      <c r="H106">
-        <v>0.186293759388517</v>
+        <v>17</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1.9453097000442399E-5</v>
+      </c>
+      <c r="H106" s="1">
+        <v>3.86563481841475E-5</v>
       </c>
       <c r="I106">
-        <v>4.9236295954293102E-2</v>
+        <v>1.7134161611742901E-2</v>
       </c>
       <c r="J106">
-        <v>7.1663474184167006E-2</v>
+        <v>2.81971241751964E-2</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B107">
-        <v>8.3339779422806001E-2</v>
+        <v>2.8627997909758399E-2</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D107">
-        <v>0.228439808988674</v>
+        <v>0.41083599785007002</v>
       </c>
       <c r="E107">
-        <v>0.35931678288843499</v>
+        <v>0.58524750637132705</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G107">
-        <v>6.4106017817475103E-2</v>
+        <v>3.4506308360150299E-3</v>
       </c>
       <c r="H107">
-        <v>9.8531442561188301E-2</v>
+        <v>5.9901550425230602E-3</v>
       </c>
       <c r="I107">
-        <v>0.112983569938599</v>
+        <v>4.9236295954293102E-2</v>
       </c>
       <c r="J107">
-        <v>0.13087528343695901</v>
+        <v>7.1663474184167006E-2</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B108">
-        <v>5.7874227679633003E-2</v>
+        <v>2.2849421277944999E-2</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D108">
-        <v>0.73984026075079701</v>
+        <v>0.420238127123504</v>
       </c>
       <c r="E108">
-        <v>0.83981110466063003</v>
+        <v>0.59304632893130005</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G108">
-        <v>4.9461989674912901E-2</v>
+        <v>3.8441952980103999E-2</v>
       </c>
       <c r="H108">
-        <v>9.46978833190351E-2</v>
+        <v>5.0166117390234397E-2</v>
       </c>
       <c r="I108">
-        <v>5.2133127653374502E-2</v>
+        <v>4.8450271424062301E-3</v>
       </c>
       <c r="J108">
-        <v>0.103878853845691</v>
+        <v>4.8168463644479402E-3</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B109">
-        <v>3.4909059508263E-2</v>
+        <v>1.0042031194399E-2</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D109">
-        <v>2.9680390006764101E-2</v>
+        <v>0.42560515005911997</v>
       </c>
       <c r="E109">
-        <v>7.4695648183689706E-2</v>
+        <v>0.59505905239747303</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G109">
-        <v>1.22201371473583E-2</v>
+        <v>7.8936027790464606E-3</v>
       </c>
       <c r="H109">
-        <v>2.2473877250641001E-2</v>
+        <v>1.78207753756057E-2</v>
       </c>
       <c r="I109">
-        <v>4.5862968345802599E-2</v>
+        <v>1.40087819918976E-2</v>
       </c>
       <c r="J109">
-        <v>6.4653305599673402E-2</v>
+        <v>2.2590813348787601E-2</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B110">
-        <v>3.4469291052938E-2</v>
+        <v>1.8972343784333399E-2</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D110">
-        <v>0.68131771202361602</v>
+        <v>0.451966988765587</v>
       </c>
       <c r="E110">
-        <v>0.80374198840285904</v>
+        <v>0.62611940645508002</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G110">
-        <v>3.7618970016163301E-2</v>
+        <v>3.0633680748453499E-3</v>
       </c>
       <c r="H110">
-        <v>4.4177988373865197E-2</v>
+        <v>3.0163525357074501E-3</v>
       </c>
       <c r="I110">
-        <v>3.8441952980103999E-2</v>
+        <v>3.0774577979853501E-2</v>
       </c>
       <c r="J110">
-        <v>5.0166117390234397E-2</v>
+        <v>7.4878364619457793E-2</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B111">
-        <v>2.7690319871002001E-2</v>
+        <v>1.3645750713674E-2</v>
       </c>
       <c r="C111" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D111">
-        <v>0.77011641995759605</v>
+        <v>0.46453960765132202</v>
       </c>
       <c r="E111">
-        <v>0.83981110466063003</v>
+        <v>0.63768618868499605</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G111">
-        <v>4.7279288641492801E-3</v>
+        <v>4.2353093331845202E-4</v>
       </c>
       <c r="H111">
-        <v>1.0676172900318699E-2</v>
+        <v>6.0957730998738096E-4</v>
       </c>
       <c r="I111">
-        <v>3.5880598471465602E-2</v>
+        <v>2.29427608794921E-2</v>
       </c>
       <c r="J111">
-        <v>8.6285787175387402E-2</v>
+        <v>3.7514972223656302E-2</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B112">
-        <v>2.543516715362E-2</v>
+        <v>2.1315927836244999E-2</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D112">
-        <v>0.76289784276661698</v>
+        <v>0.47538399219175798</v>
       </c>
       <c r="E112">
-        <v>0.83981110466063003</v>
+        <v>0.64669353892752701</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G112">
-        <v>1.5018050268363E-2</v>
+        <v>2.3410531699338499E-2</v>
       </c>
       <c r="H112">
-        <v>1.6260075446114099E-2</v>
+        <v>3.1438683796349301E-2</v>
       </c>
       <c r="I112">
-        <v>3.01401140004318E-2</v>
+        <v>2.29427608794921E-2</v>
       </c>
       <c r="J112">
-        <v>5.6296260992214603E-2</v>
+        <v>3.7514972223656302E-2</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B113">
-        <v>2.441847929098E-2</v>
+        <v>1.01106410716E-2</v>
       </c>
       <c r="C113" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D113">
-        <v>0.63673874417169896</v>
+        <v>0.48065870290092699</v>
       </c>
       <c r="E113">
-        <v>0.75706732574745295</v>
+        <v>0.64803092980392796</v>
       </c>
       <c r="F113" t="s">
         <v>55</v>
       </c>
       <c r="G113">
-        <v>1.50365665327396E-2</v>
+        <v>1.0792053443519E-2</v>
       </c>
       <c r="H113">
-        <v>3.7408323963710598E-2</v>
+        <v>1.6828647361571501E-2</v>
       </c>
       <c r="I113">
-        <v>2.5044935807152498E-2</v>
+        <v>1.31362640183652E-2</v>
       </c>
       <c r="J113">
-        <v>5.4572914528293201E-2</v>
+        <v>1.61931355061215E-2</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B114">
-        <v>2.3421600454024999E-2</v>
+        <v>3.0095890055676901E-2</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D114">
-        <v>0.51113908878359404</v>
+        <v>0.50709270910208004</v>
       </c>
       <c r="E114">
         <v>0.65910266721046795</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G114">
-        <v>3.64617641836599E-2</v>
+        <v>2.96281993056133E-3</v>
       </c>
       <c r="H114">
-        <v>3.5359845530699797E-2</v>
+        <v>5.3984693086661303E-3</v>
       </c>
       <c r="I114">
-        <v>1.5667798077719099E-2</v>
+        <v>5.2133127653374502E-2</v>
       </c>
       <c r="J114">
-        <v>1.54942812456728E-2</v>
+        <v>0.103878853845691</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B115">
-        <v>2.0907024717856E-2</v>
+        <v>3.1501819048861103E-2</v>
       </c>
       <c r="C115" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D115">
-        <v>3.4451465032412303E-2</v>
+        <v>0.51506036245586295</v>
       </c>
       <c r="E115">
-        <v>8.2574146347527896E-2</v>
+        <v>0.65910266721046795</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G115">
-        <v>2.7227439688311199E-2</v>
+        <v>6.3057080978405899E-3</v>
       </c>
       <c r="H115">
-        <v>3.8024556272194802E-2</v>
+        <v>6.3884763385426598E-3</v>
       </c>
       <c r="I115">
-        <v>9.7138669612899103E-3</v>
+        <v>5.2133127653374502E-2</v>
       </c>
       <c r="J115">
-        <v>2.0161926709785099E-2</v>
+        <v>0.103878853845691</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B116">
-        <v>2.0775258547613001E-2</v>
+        <v>2.3172272665872001E-2</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D116">
-        <v>0.51113908878359404</v>
+        <v>0.499793660080603</v>
       </c>
       <c r="E116">
         <v>0.65910266721046795</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G116">
-        <v>1.6819646770612099E-2</v>
+        <v>8.2754829902606797E-3</v>
       </c>
       <c r="H116">
-        <v>2.8682023386485699E-2</v>
+        <v>1.51399238600376E-2</v>
       </c>
       <c r="I116">
-        <v>2.2965283756392701E-2</v>
+        <v>3.8441952980103999E-2</v>
       </c>
       <c r="J116">
-        <v>4.13174449448242E-2</v>
+        <v>5.0166117390234397E-2</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5054,95 +5082,95 @@
         <v>74</v>
       </c>
       <c r="B117">
-        <v>2.0418822594849999E-2</v>
+        <v>2.3421600454024999E-2</v>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D117">
-        <v>0.506607251058659</v>
+        <v>0.51113908878359404</v>
       </c>
       <c r="E117">
         <v>0.65910266721046795</v>
       </c>
       <c r="F117" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G117">
-        <v>1.53169974137225E-2</v>
+        <v>3.64617641836599E-2</v>
       </c>
       <c r="H117">
-        <v>2.0489567246189E-2</v>
+        <v>3.5359845530699797E-2</v>
       </c>
       <c r="I117">
-        <v>2.6460360573278999E-2</v>
+        <v>1.5667798077719099E-2</v>
       </c>
       <c r="J117">
-        <v>3.4081020667756499E-2</v>
+        <v>1.54942812456728E-2</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B118">
-        <v>9.7565204660196705E-2</v>
+        <v>2.0775258547613001E-2</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D118">
-        <v>0.126903250130109</v>
+        <v>0.51113908878359404</v>
       </c>
       <c r="E118">
-        <v>0.22430914765381299</v>
+        <v>0.65910266721046795</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G118">
-        <v>0.17586894198809999</v>
+        <v>1.6819646770612099E-2</v>
       </c>
       <c r="H118">
-        <v>0.186293759388517</v>
+        <v>2.8682023386485699E-2</v>
       </c>
       <c r="I118">
-        <v>3.5189832214995699E-2</v>
+        <v>2.2965283756392701E-2</v>
       </c>
       <c r="J118">
-        <v>2.80717833059204E-2</v>
+        <v>4.13174449448242E-2</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B119">
-        <v>7.1646048240942298E-2</v>
+        <v>2.0418822594849999E-2</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D119">
-        <v>0.10934041797888901</v>
+        <v>0.506607251058659</v>
       </c>
       <c r="E119">
-        <v>0.201346379448929</v>
+        <v>0.65910266721046795</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G119">
-        <v>8.2062028454509602E-4</v>
+        <v>1.53169974137225E-2</v>
       </c>
       <c r="H119">
-        <v>1.7707196365263601E-3</v>
+        <v>2.0489567246189E-2</v>
       </c>
       <c r="I119">
-        <v>0.119709329630023</v>
+        <v>2.6460360573278999E-2</v>
       </c>
       <c r="J119">
-        <v>0.111508261074367</v>
+        <v>3.4081020667756499E-2</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5150,95 +5178,95 @@
         <v>75</v>
       </c>
       <c r="B120">
-        <v>4.0387744794713999E-2</v>
+        <v>1.3794704073603E-2</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D120">
-        <v>0.15771478662416</v>
+        <v>0.52275732682880804</v>
       </c>
       <c r="E120">
-        <v>0.26461036422498002</v>
+        <v>0.66333072563991602</v>
       </c>
       <c r="F120" t="s">
         <v>45</v>
       </c>
       <c r="G120">
-        <v>1.77430665530568E-3</v>
+        <v>2.24380546348984E-2</v>
       </c>
       <c r="H120">
-        <v>2.1307946547247198E-3</v>
+        <v>5.4540569936595097E-2</v>
       </c>
       <c r="I120">
-        <v>6.7918836092825396E-2</v>
+        <v>1.5641067229549401E-3</v>
       </c>
       <c r="J120">
-        <v>5.7760150102310899E-2</v>
+        <v>2.3881113583235202E-3</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B121">
-        <v>3.7284557028020998E-2</v>
+        <v>1.0453764549483E-2</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D121">
-        <v>3.5309792801802402E-2</v>
+        <v>0.52869498675774795</v>
       </c>
       <c r="E121">
-        <v>8.3309042391752505E-2</v>
+        <v>0.66527452500349904</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G121">
-        <v>6.4106017817475103E-2</v>
+        <v>1.3071953652384999E-2</v>
       </c>
       <c r="H121">
-        <v>9.8531442561188301E-2</v>
+        <v>1.99105731250344E-2</v>
       </c>
       <c r="I121">
-        <v>8.1042063620943398E-3</v>
+        <v>9.5676910357548797E-3</v>
       </c>
       <c r="J121">
-        <v>1.26536214774201E-2</v>
+        <v>1.24820271759453E-2</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B122">
-        <v>3.0467697934683E-2</v>
+        <v>1.6308524621846999E-2</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D122">
-        <v>0.56222953542817</v>
+        <v>0.53328356150817402</v>
       </c>
       <c r="E122">
-        <v>0.69587426106273498</v>
+        <v>0.66550262634491097</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G122">
-        <v>4.9461989674912901E-2</v>
+        <v>2.6129913242207901E-2</v>
       </c>
       <c r="H122">
-        <v>9.46978833190351E-2</v>
+        <v>4.8934249461808202E-2</v>
       </c>
       <c r="I122">
-        <v>3.9528673734811797E-3</v>
+        <v>9.1410824916118294E-3</v>
       </c>
       <c r="J122">
-        <v>4.9170096167805502E-3</v>
+        <v>1.04945353237019E-2</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -5246,543 +5274,543 @@
         <v>75</v>
       </c>
       <c r="B123">
-        <v>2.1367812286431E-2</v>
+        <v>3.0467697934683E-2</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D123">
-        <v>8.2800817475260594E-2</v>
+        <v>0.56222953542817</v>
       </c>
       <c r="E123">
-        <v>0.16520312282383601</v>
+        <v>0.69587426106273498</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G123">
-        <v>3.7618970016163301E-2</v>
+        <v>4.9461989674912901E-2</v>
       </c>
       <c r="H123">
-        <v>4.4177988373865197E-2</v>
+        <v>9.46978833190351E-2</v>
       </c>
       <c r="I123">
-        <v>4.8450271424062301E-3</v>
+        <v>3.9528673734811797E-3</v>
       </c>
       <c r="J123">
-        <v>4.8168463644479402E-3</v>
+        <v>4.9170096167805502E-3</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B124">
-        <v>2.0544307319071999E-2</v>
+        <v>1.6642759863933002E-2</v>
       </c>
       <c r="C124" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D124">
-        <v>8.3148591619943799E-2</v>
+        <v>0.57370088258190899</v>
       </c>
       <c r="E124">
-        <v>0.16520312282383601</v>
+        <v>0.70429945747860401</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G124">
-        <v>3.64617641836599E-2</v>
+        <v>2.7495432907393199E-2</v>
       </c>
       <c r="H124">
-        <v>3.5359845530699797E-2</v>
+        <v>8.7895014184604797E-2</v>
       </c>
       <c r="I124">
-        <v>8.5093758687631998E-3</v>
+        <v>1.35678117909934E-3</v>
       </c>
       <c r="J124">
-        <v>1.2485542303576701E-2</v>
+        <v>2.6739531654950302E-3</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B125">
-        <v>1.5429513916636E-2</v>
+        <v>2.1930963080822E-2</v>
       </c>
       <c r="C125" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D125">
-        <v>0.115714569688031</v>
+        <v>0.58666121249659797</v>
       </c>
       <c r="E125">
-        <v>0.210440292901655</v>
+        <v>0.71440196037892201</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G125">
-        <v>2.7227439688311199E-2</v>
+        <v>3.0990098627568501E-3</v>
       </c>
       <c r="H125">
-        <v>3.8024556272194802E-2</v>
+        <v>3.1652954271026001E-3</v>
       </c>
       <c r="I125">
-        <v>3.80222340782034E-3</v>
+        <v>3.8441952980103999E-2</v>
       </c>
       <c r="J125">
-        <v>3.01194653718833E-3</v>
+        <v>5.0166117390234397E-2</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B126">
-        <v>1.4003002133541E-2</v>
+        <v>1.2916376909731001E-2</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D126">
-        <v>0.76986602798914805</v>
+        <v>0.61840175232401495</v>
       </c>
       <c r="E126">
-        <v>0.83981110466063003</v>
+        <v>0.74110051270576405</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G126">
-        <v>1.3389304925943599E-3</v>
+        <v>7.9324550121608103E-3</v>
       </c>
       <c r="H126">
-        <v>2.2789795494030898E-3</v>
+        <v>6.1741032843926104E-3</v>
       </c>
       <c r="I126">
-        <v>2.29427608794921E-2</v>
+        <v>2.2965283756392701E-2</v>
       </c>
       <c r="J126">
-        <v>3.7514972223656302E-2</v>
+        <v>4.13174449448242E-2</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B127">
-        <v>1.3794704073603E-2</v>
+        <v>1.475090492043E-2</v>
       </c>
       <c r="C127" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D127">
-        <v>0.52275732682880804</v>
+        <v>0.61443347037222495</v>
       </c>
       <c r="E127">
-        <v>0.66333072563991602</v>
+        <v>0.74110051270576405</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G127">
-        <v>2.24380546348984E-2</v>
+        <v>2.6460360573278999E-2</v>
       </c>
       <c r="H127">
-        <v>5.4540569936595097E-2</v>
+        <v>3.4081020667756499E-2</v>
       </c>
       <c r="I127">
-        <v>1.5641067229549401E-3</v>
+        <v>6.7490277138037898E-3</v>
       </c>
       <c r="J127">
-        <v>2.3881113583235202E-3</v>
+        <v>5.2839689444498499E-3</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B128">
-        <v>1.3746364049411999E-2</v>
+        <v>2.441847929098E-2</v>
       </c>
       <c r="C128" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D128">
-        <v>4.8221690805560097E-4</v>
+        <v>0.63673874417169896</v>
       </c>
       <c r="E128">
-        <v>3.2174562700597602E-3</v>
+        <v>0.75706732574745295</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="1">
-        <v>9.1067810753509698E-5</v>
+        <v>55</v>
+      </c>
+      <c r="G128">
+        <v>1.50365665327396E-2</v>
       </c>
       <c r="H128">
-        <v>1.0076268232717499E-4</v>
+        <v>3.7408323963710598E-2</v>
       </c>
       <c r="I128">
-        <v>2.30066072408995E-2</v>
+        <v>2.5044935807152498E-2</v>
       </c>
       <c r="J128">
-        <v>3.8121565744719303E-2</v>
+        <v>5.4572914528293201E-2</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B129">
-        <v>1.2383397252935E-2</v>
+        <v>3.4469291052938E-2</v>
       </c>
       <c r="C129" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D129">
-        <v>4.4709374236835399E-4</v>
+        <v>0.68131771202361602</v>
       </c>
       <c r="E129">
-        <v>3.2174562700597602E-3</v>
+        <v>0.80374198840285904</v>
       </c>
       <c r="F129" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G129">
-        <v>1.4956875531973101E-4</v>
+        <v>3.7618970016163301E-2</v>
       </c>
       <c r="H129">
-        <v>2.20860187054893E-4</v>
+        <v>4.4177988373865197E-2</v>
       </c>
       <c r="I129">
-        <v>2.0793007777358201E-2</v>
+        <v>3.8441952980103999E-2</v>
       </c>
       <c r="J129">
-        <v>1.2150304131566401E-2</v>
+        <v>5.0166117390234397E-2</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B130">
-        <v>1.1102821097928E-2</v>
+        <v>1.3855611116830001E-2</v>
       </c>
       <c r="C130" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D130">
-        <v>2.1450350114236499E-4</v>
+        <v>0.69742536494323804</v>
       </c>
       <c r="E130">
-        <v>2.3135734766069399E-3</v>
+        <v>0.81008638543406897</v>
       </c>
       <c r="F130" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G130">
-        <v>1.76017145123898E-4</v>
+        <v>3.6522985873917902E-3</v>
       </c>
       <c r="H130">
-        <v>3.4985415492449497E-4</v>
+        <v>3.39034003782004E-3</v>
       </c>
       <c r="I130">
-        <v>1.86847030595131E-2</v>
+        <v>2.3410531699338499E-2</v>
       </c>
       <c r="J130">
-        <v>1.2615755729719E-2</v>
+        <v>3.1438683796349301E-2</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B131">
-        <v>1.0879088432988E-2</v>
+        <v>1.3602972588617E-2</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D131">
-        <v>0.85670834901444304</v>
+        <v>0.69704238147460795</v>
       </c>
       <c r="E131">
-        <v>0.89835389375820096</v>
+        <v>0.81008638543406897</v>
       </c>
       <c r="F131" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G131">
-        <v>1.50365665327396E-2</v>
+        <v>6.7043083034034499E-3</v>
       </c>
       <c r="H131">
-        <v>3.7408323963710598E-2</v>
+        <v>7.2999305922797804E-3</v>
       </c>
       <c r="I131">
-        <v>4.8131939192490002E-3</v>
+        <v>2.2965283756392701E-2</v>
       </c>
       <c r="J131">
-        <v>7.8177679131524198E-3</v>
+        <v>4.13174449448242E-2</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B132">
-        <v>1.0795451672942E-2</v>
+        <v>1.1828981378859E-2</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D132">
-        <v>6.4127141223889296E-3</v>
+        <v>0.71064414825468503</v>
       </c>
       <c r="E132">
-        <v>2.1518218499571699E-2</v>
+        <v>0.81913943806456002</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G132">
-        <v>1.3284654892020201E-3</v>
+        <v>2.8904795613615402E-3</v>
       </c>
       <c r="H132">
-        <v>2.3275150627334899E-3</v>
+        <v>9.3403890299074196E-3</v>
       </c>
       <c r="I132">
-        <v>1.8630524842155601E-2</v>
+        <v>1.7134161611742901E-2</v>
       </c>
       <c r="J132">
-        <v>2.6263460365871301E-2</v>
+        <v>2.81971241751964E-2</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B133">
-        <v>1.0282173822082999E-2</v>
+        <v>3.4789090958973999E-2</v>
       </c>
       <c r="C133" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D133">
-        <v>0.38584063131095597</v>
+        <v>0.71917704450535103</v>
       </c>
       <c r="E133">
-        <v>0.56463716808216602</v>
+        <v>0.82269495242657598</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" s="1">
-        <v>1.9453097000442399E-5</v>
-      </c>
-      <c r="H133" s="1">
-        <v>3.86563481841475E-5</v>
+        <v>34</v>
+      </c>
+      <c r="G133">
+        <v>4.9236295954293102E-2</v>
+      </c>
+      <c r="H133">
+        <v>7.1663474184167006E-2</v>
       </c>
       <c r="I133">
-        <v>1.7134161611742901E-2</v>
+        <v>3.5189832214995699E-2</v>
       </c>
       <c r="J133">
-        <v>2.81971241751964E-2</v>
+        <v>2.80717833059204E-2</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B134">
-        <v>7.0813034813166698E-2</v>
+        <v>1.7047481757926999E-2</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D134">
-        <v>7.1241511627766596E-2</v>
+        <v>0.75125620647961999</v>
       </c>
       <c r="E134">
-        <v>0.145371192645848</v>
+        <v>0.83981110466063003</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" s="1">
-        <v>9.93140370054076E-5</v>
+        <v>39</v>
+      </c>
+      <c r="G134">
+        <v>2.9014240137348502E-3</v>
       </c>
       <c r="H134">
-        <v>1.4356956975942E-4</v>
+        <v>3.32756330601695E-3</v>
       </c>
       <c r="I134">
-        <v>0.119709329630023</v>
+        <v>3.01401140004318E-2</v>
       </c>
       <c r="J134">
-        <v>0.111508261074367</v>
+        <v>5.6296260992214603E-2</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B135">
-        <v>6.4038322852725302E-2</v>
+        <v>1.1626192526804999E-2</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D135">
-        <v>1.1932456658554601E-2</v>
+        <v>0.77307114932336196</v>
       </c>
       <c r="E135">
-        <v>3.6036019108834902E-2</v>
+        <v>0.83981110466063003</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G135">
-        <v>0.112983569938599</v>
+        <v>4.0600106815346301E-3</v>
       </c>
       <c r="H135">
-        <v>0.13087528343695901</v>
+        <v>7.0350852171765102E-3</v>
       </c>
       <c r="I135">
-        <v>8.1042063620943398E-3</v>
+        <v>1.6465439399829598E-2</v>
       </c>
       <c r="J135">
-        <v>1.26536214774201E-2</v>
+        <v>2.6668724533579099E-2</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B136">
-        <v>4.0070053845299998E-2</v>
+        <v>5.7874227679633003E-2</v>
       </c>
       <c r="C136" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D136">
-        <v>9.5663244308223594E-2</v>
+        <v>0.73984026075079701</v>
       </c>
       <c r="E136">
-        <v>0.18426080352420299</v>
+        <v>0.83981110466063003</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G136">
-        <v>5.9760721843895095E-4</v>
+        <v>4.9461989674912901E-2</v>
       </c>
       <c r="H136">
-        <v>8.9842568055987398E-4</v>
+        <v>9.46978833190351E-2</v>
       </c>
       <c r="I136">
-        <v>6.7918836092825396E-2</v>
+        <v>5.2133127653374502E-2</v>
       </c>
       <c r="J136">
-        <v>5.7760150102310899E-2</v>
+        <v>0.103878853845691</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B137">
-        <v>3.4789090958973999E-2</v>
+        <v>2.7690319871002001E-2</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D137">
-        <v>0.71917704450535103</v>
+        <v>0.77011641995759605</v>
       </c>
       <c r="E137">
-        <v>0.82269495242657598</v>
+        <v>0.83981110466063003</v>
       </c>
       <c r="F137" t="s">
         <v>34</v>
       </c>
       <c r="G137">
-        <v>4.9236295954293102E-2</v>
+        <v>4.7279288641492801E-3</v>
       </c>
       <c r="H137">
-        <v>7.1663474184167006E-2</v>
+        <v>1.0676172900318699E-2</v>
       </c>
       <c r="I137">
-        <v>3.5189832214995699E-2</v>
+        <v>3.5880598471465602E-2</v>
       </c>
       <c r="J137">
-        <v>2.80717833059204E-2</v>
+        <v>8.6285787175387402E-2</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B138">
-        <v>3.1272634309451999E-2</v>
+        <v>2.543516715362E-2</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D138">
-        <v>0.83500918141607705</v>
+        <v>0.76289784276661698</v>
       </c>
       <c r="E138">
-        <v>0.88172298177501796</v>
+        <v>0.83981110466063003</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G138">
-        <v>5.2133127653374502E-2</v>
+        <v>1.5018050268363E-2</v>
       </c>
       <c r="H138">
-        <v>0.103878853845691</v>
+        <v>1.6260075446114099E-2</v>
       </c>
       <c r="I138">
-        <v>3.9528673734811797E-3</v>
+        <v>3.01401140004318E-2</v>
       </c>
       <c r="J138">
-        <v>4.9170096167805502E-3</v>
+        <v>5.6296260992214603E-2</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B139">
-        <v>2.7881072845387E-2</v>
+        <v>1.4003002133541E-2</v>
       </c>
       <c r="C139" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D139">
-        <v>0.91974810636939097</v>
+        <v>0.76986602798914805</v>
       </c>
       <c r="E139">
-        <v>0.942845683870844</v>
+        <v>0.83981110466063003</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G139">
-        <v>4.5862968345802599E-2</v>
+        <v>1.3389304925943599E-3</v>
       </c>
       <c r="H139">
-        <v>6.4653305599673402E-2</v>
+        <v>2.2789795494030898E-3</v>
       </c>
       <c r="I139">
-        <v>5.88412099841777E-3</v>
+        <v>2.29427608794921E-2</v>
       </c>
       <c r="J139">
-        <v>8.4868054195235097E-3</v>
+        <v>3.7514972223656302E-2</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5790,95 +5818,95 @@
         <v>76</v>
       </c>
       <c r="B140">
-        <v>2.2849421277944999E-2</v>
+        <v>1.2728613075737E-2</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D140">
-        <v>0.420238127123504</v>
+        <v>0.76302460055298305</v>
       </c>
       <c r="E140">
-        <v>0.59304632893130005</v>
+        <v>0.83981110466063003</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G140">
-        <v>3.8441952980103999E-2</v>
+        <v>2.2965283756392701E-2</v>
       </c>
       <c r="H140">
-        <v>5.0166117390234397E-2</v>
+        <v>4.13174449448242E-2</v>
       </c>
       <c r="I140">
-        <v>4.8450271424062301E-3</v>
+        <v>3.7203001162659901E-3</v>
       </c>
       <c r="J140">
-        <v>4.8168463644479402E-3</v>
+        <v>2.38293128597131E-3</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B141">
-        <v>2.1236467569327001E-2</v>
+        <v>2.9708941091723302E-2</v>
       </c>
       <c r="C141" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D141">
-        <v>0.82069208772073998</v>
+        <v>0.79231317671008805</v>
       </c>
       <c r="E141">
-        <v>0.87270778342135003</v>
+        <v>0.85456635488016597</v>
       </c>
       <c r="F141" t="s">
         <v>34</v>
       </c>
       <c r="G141">
-        <v>3.5880598471465602E-2</v>
+        <v>3.95569875740395E-3</v>
       </c>
       <c r="H141">
-        <v>8.6285787175387402E-2</v>
-      </c>
-      <c r="I141" s="1">
-        <v>1.52276534186082E-5</v>
-      </c>
-      <c r="J141" s="1">
-        <v>3.7299980855538002E-5</v>
+        <v>5.8410486104482897E-3</v>
+      </c>
+      <c r="I141">
+        <v>4.9236295954293102E-2</v>
+      </c>
+      <c r="J141">
+        <v>7.1663474184167006E-2</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B142">
-        <v>1.7801975113363001E-2</v>
+        <v>2.1078473695745999E-2</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D142">
-        <v>0.36571229628151303</v>
+        <v>0.80359152011818002</v>
       </c>
       <c r="E142">
-        <v>0.541397615083416</v>
+        <v>0.86058382650954002</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G142">
-        <v>3.01401140004318E-2</v>
+        <v>1.65058983551385E-3</v>
       </c>
       <c r="H142">
-        <v>5.6296260992214603E-2</v>
+        <v>2.8777837629713498E-3</v>
       </c>
       <c r="I142">
-        <v>1.9036175140890799E-3</v>
+        <v>3.5880598471465602E-2</v>
       </c>
       <c r="J142">
-        <v>2.5426315881437599E-3</v>
+        <v>8.6285787175387402E-2</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5886,31 +5914,31 @@
         <v>76</v>
       </c>
       <c r="B143">
-        <v>1.6642759863933002E-2</v>
+        <v>2.1236467569327001E-2</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D143">
-        <v>0.57370088258190899</v>
+        <v>0.82069208772073998</v>
       </c>
       <c r="E143">
-        <v>0.70429945747860401</v>
+        <v>0.87270778342135003</v>
       </c>
       <c r="F143" t="s">
         <v>34</v>
       </c>
       <c r="G143">
-        <v>2.7495432907393199E-2</v>
+        <v>3.5880598471465602E-2</v>
       </c>
       <c r="H143">
-        <v>8.7895014184604797E-2</v>
-      </c>
-      <c r="I143">
-        <v>1.35678117909934E-3</v>
-      </c>
-      <c r="J143">
-        <v>2.6739531654950302E-3</v>
+        <v>8.6285787175387402E-2</v>
+      </c>
+      <c r="I143" s="1">
+        <v>1.52276534186082E-5</v>
+      </c>
+      <c r="J143" s="1">
+        <v>3.7299980855538002E-5</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5918,63 +5946,63 @@
         <v>76</v>
       </c>
       <c r="B144">
-        <v>1.6435702218495E-2</v>
+        <v>3.1272634309451999E-2</v>
       </c>
       <c r="C144" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D144">
-        <v>0.87353436607067803</v>
+        <v>0.83500918141607705</v>
       </c>
       <c r="E144">
-        <v>0.90968061570118897</v>
+        <v>0.88172298177501796</v>
       </c>
       <c r="F144" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G144">
-        <v>2.5044935807152498E-2</v>
+        <v>5.2133127653374502E-2</v>
       </c>
       <c r="H144">
-        <v>5.4572914528293201E-2</v>
+        <v>0.103878853845691</v>
       </c>
       <c r="I144">
-        <v>4.8131939192490002E-3</v>
+        <v>3.9528673734811797E-3</v>
       </c>
       <c r="J144">
-        <v>7.8177679131524198E-3</v>
+        <v>4.9170096167805502E-3</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B145">
-        <v>1.475090492043E-2</v>
+        <v>1.0879088432988E-2</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D145">
-        <v>0.61443347037222495</v>
+        <v>0.85670834901444304</v>
       </c>
       <c r="E145">
-        <v>0.74110051270576405</v>
+        <v>0.89835389375820096</v>
       </c>
       <c r="F145" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G145">
-        <v>2.6460360573278999E-2</v>
+        <v>1.50365665327396E-2</v>
       </c>
       <c r="H145">
-        <v>3.4081020667756499E-2</v>
+        <v>3.7408323963710598E-2</v>
       </c>
       <c r="I145">
-        <v>6.7490277138037898E-3</v>
+        <v>4.8131939192490002E-3</v>
       </c>
       <c r="J145">
-        <v>5.2839689444498499E-3</v>
+        <v>7.8177679131524198E-3</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5982,127 +6010,127 @@
         <v>76</v>
       </c>
       <c r="B146">
-        <v>1.3645750713674E-2</v>
+        <v>1.6435702218495E-2</v>
       </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D146">
-        <v>0.46453960765132202</v>
+        <v>0.87353436607067803</v>
       </c>
       <c r="E146">
-        <v>0.63768618868499605</v>
+        <v>0.90968061570118897</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G146">
-        <v>4.2353093331845202E-4</v>
+        <v>2.5044935807152498E-2</v>
       </c>
       <c r="H146">
-        <v>6.0957730998738096E-4</v>
+        <v>5.4572914528293201E-2</v>
       </c>
       <c r="I146">
-        <v>2.29427608794921E-2</v>
+        <v>4.8131939192490002E-3</v>
       </c>
       <c r="J146">
-        <v>3.7514972223656302E-2</v>
+        <v>7.8177679131524198E-3</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B147">
-        <v>1.3583672535368E-2</v>
+        <v>1.0381321188527E-2</v>
       </c>
       <c r="C147" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D147">
-        <v>5.8896780730196196E-4</v>
+        <v>0.90164555140631897</v>
       </c>
       <c r="E147">
-        <v>3.7055891209415099E-3</v>
+        <v>0.93252382371475395</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="1">
-        <v>4.9779387203236602E-5</v>
-      </c>
-      <c r="H147" s="1">
-        <v>7.4797843857555199E-5</v>
+        <v>41</v>
+      </c>
+      <c r="G147">
+        <v>5.6011678007892602E-3</v>
+      </c>
+      <c r="H147">
+        <v>9.6280250729929295E-3</v>
       </c>
       <c r="I147">
-        <v>2.30066072408995E-2</v>
+        <v>1.40087819918976E-2</v>
       </c>
       <c r="J147">
-        <v>3.8121565744719303E-2</v>
+        <v>2.2590813348787601E-2</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B148">
-        <v>1.2728613075737E-2</v>
+        <v>1.4815705183973E-2</v>
       </c>
       <c r="C148" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D148">
-        <v>0.76302460055298305</v>
+        <v>0.92848369916984397</v>
       </c>
       <c r="E148">
-        <v>0.83981110466063003</v>
+        <v>0.942845683870844</v>
       </c>
       <c r="F148" t="s">
         <v>45</v>
       </c>
       <c r="G148">
-        <v>2.2965283756392701E-2</v>
+        <v>4.5233476977205103E-3</v>
       </c>
       <c r="H148">
-        <v>4.13174449448242E-2</v>
+        <v>6.5717434434247497E-3</v>
       </c>
       <c r="I148">
-        <v>3.7203001162659901E-3</v>
+        <v>2.24380546348984E-2</v>
       </c>
       <c r="J148">
-        <v>2.38293128597131E-3</v>
+        <v>5.4540569936595097E-2</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B149">
-        <v>1.2273834796561E-2</v>
+        <v>1.0129759223923E-2</v>
       </c>
       <c r="C149" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D149">
-        <v>3.2918806140349102E-4</v>
+        <v>0.93035766156791899</v>
       </c>
       <c r="E149">
-        <v>3.1067123294954398E-3</v>
+        <v>0.942845683870844</v>
       </c>
       <c r="F149" t="s">
-        <v>62</v>
-      </c>
-      <c r="G149" s="1">
-        <v>4.9846324097109701E-5</v>
+        <v>45</v>
+      </c>
+      <c r="G149">
+        <v>6.7043083034034499E-3</v>
       </c>
       <c r="H149">
-        <v>1.10902782012337E-4</v>
+        <v>7.2999305922797804E-3</v>
       </c>
       <c r="I149">
-        <v>2.0793007777358201E-2</v>
+        <v>1.6819646770612099E-2</v>
       </c>
       <c r="J149">
-        <v>1.2150304131566401E-2</v>
+        <v>2.8682023386485699E-2</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -6110,98 +6138,101 @@
         <v>76</v>
       </c>
       <c r="B150">
-        <v>1.0721698686794999E-2</v>
+        <v>2.7881072845387E-2</v>
       </c>
       <c r="C150" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D150">
-        <v>1.71921319353563E-3</v>
+        <v>0.91974810636939097</v>
       </c>
       <c r="E150">
-        <v>8.9517652490993093E-3</v>
+        <v>0.942845683870844</v>
       </c>
       <c r="F150" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G150">
-        <v>6.1207264399438805E-4</v>
+        <v>4.5862968345802599E-2</v>
       </c>
       <c r="H150">
-        <v>1.14794880683829E-3</v>
+        <v>6.4653305599673402E-2</v>
       </c>
       <c r="I150">
-        <v>1.86847030595131E-2</v>
+        <v>5.88412099841777E-3</v>
       </c>
       <c r="J150">
-        <v>1.2615755729719E-2</v>
+        <v>8.4868054195235097E-3</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B151">
-        <v>1.0711073033499999E-2</v>
+        <v>1.5341773241758999E-2</v>
       </c>
       <c r="C151" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D151">
-        <v>3.4803763362076302E-3</v>
+        <v>0.93794745684296699</v>
       </c>
       <c r="E151">
-        <v>1.34753032504449E-2</v>
+        <v>0.94420043988858704</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G151">
-        <v>7.5489014578499901E-4</v>
+        <v>9.3537540130922692E-3</v>
       </c>
       <c r="H151">
-        <v>1.1941349093831501E-3</v>
+        <v>1.17333859263516E-2</v>
       </c>
       <c r="I151">
-        <v>1.8630524842155601E-2</v>
+        <v>2.30066072408995E-2</v>
       </c>
       <c r="J151">
-        <v>2.6263460365871301E-2</v>
+        <v>3.8121565744719303E-2</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B152">
-        <v>1.013837111927E-2</v>
+        <v>1.4355180656539001E-2</v>
       </c>
       <c r="C152" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D152">
-        <v>4.8406019176147702E-2</v>
+        <v>0.96279104111812996</v>
       </c>
       <c r="E152">
-        <v>0.107489836699975</v>
+        <v>0.96279104111812996</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>5.8409182176034197E-4</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>6.9402120565799201E-4</v>
       </c>
       <c r="I152">
-        <v>1.7134161611742901E-2</v>
+        <v>2.5044935807152498E-2</v>
       </c>
       <c r="J152">
-        <v>2.81971241751964E-2</v>
+        <v>5.4572914528293201E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J152">
+    <sortCondition ref="E1:E152"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6210,8 +6241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6943,7 +6974,7 @@
         <v>92</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -6954,7 +6985,7 @@
         <v>86</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -6981,7 +7012,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E24"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7703,7 +7734,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="A8:L8"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8044,7 +8075,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E11"/>
+      <selection activeCell="B2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8343,7 +8374,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:E23"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9050,7 +9081,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9060,7 +9091,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9068,7 +9099,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9084,7 +9115,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9092,7 +9123,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9100,7 +9131,7 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9108,7 +9139,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9124,7 +9155,7 @@
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9164,7 +9195,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9180,7 +9211,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9243,4 +9274,537 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A7EEE7-56D2-491D-B5B9-67BF2FD3B1A3}">
+  <dimension ref="A1:Z18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.46294341141188E-2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.3814631382657001E-2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.3870483571996E-2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.0045032547470001E-2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2.6641117986104999E-2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2.6751511253426001E-2</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="4">
+        <v>2.9479581980431002E-2</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="4">
+        <v>1.2273834796561E-2</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>1.1102821097928E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.0515260521773E-2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.0421659723501E-2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.0464782187897001E-2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.3966463315076999E-2</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1.5425799284123E-2</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1.5491939259112001E-2</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1.2817307114456E-2</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1.3583672535368E-2</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>1.3746364049411999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.0330569800664E-2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.1051405265655999E-2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.03620922707729E-2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.0765141214877001E-2</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.0839988182833001E-2</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.1029936719082</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1.188871546547E-2</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="4">
+        <v>1.0721698686794999E-2</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1.2383397252935E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.0926445633813E-2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.0320367298716999E-2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.4089121081071999E-2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.1669882966829E-2</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="4">
+        <v>6.5480738776680605E-2</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2.2052270006887E-2</v>
+      </c>
+      <c r="T5">
+        <f>SUM(T2:T4)</f>
+        <v>5.4185604560357009E-2</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1.0711073033499999E-2</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1.0795451672942E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.6887807124092E-2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.2440823106186698E-2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9.9740717298305706E-2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.0659126140329E-2</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.2141416764108999E-2</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1.3739199923438E-2</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" s="4">
+        <v>6.4038322852725302E-2</v>
+      </c>
+      <c r="Z6">
+        <f>SUM(Z2:Z5)</f>
+        <v>4.8028034073216992E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.2210473649617999E-2</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>0.1080488867767177</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.0244439858639999E-2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.3200658060594001E-2</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.3707866296266E-2</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1.8254957186359999E-2</v>
+      </c>
+      <c r="W7">
+        <f>SUM(W2:W6)</f>
+        <v>0.1113286019049493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.5543679924550399E-2</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H2:H7)</f>
+        <v>0.16877163626868361</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.0440341186232001E-2</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2.7201918040467999E-2</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>3.7332849799152003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.1018000195130001E-2</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3.9215537593821598E-2</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1.3726620849574E-2</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2.0603813089908E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2.2323127194787299E-2</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K2:K9)</f>
+        <v>0.1199621830252296</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.818360597486E-2</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(Q2:Q9)</f>
+        <v>0.25722021242648302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>0.13438479815854651</v>
+      </c>
+      <c r="N11">
+        <f>SUM(N2:N10)</f>
+        <v>0.21334907215501858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="21">
+        <f>(B11+E7+H8+K10)*100</f>
+        <v>53.116750422917747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="21">
+        <f>(B11+N11+Q10+T5)*100</f>
+        <v>65.913968730040523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="21">
+        <f>SUM(E7+N11+W7)*100</f>
+        <v>43.272656083668558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="21">
+        <f>SUM(H8+Q10+Z6)*100</f>
+        <v>47.40198827683836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="21">
+        <f>SUM(K10+T5+W7+Z6)*100</f>
+        <v>33.350442356375289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simper/group_krusk_simper.xlsx
+++ b/simper/group_krusk_simper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/simper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:40009_{0BF69CA4-1627-4376-95DA-C6DD020424A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3A94E70-580B-4292-B585-BC0881871FB3}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:40009_{0BF69CA4-1627-4376-95DA-C6DD020424A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3A92BCFF-39C4-4197-B6A7-488EC91F4EEF}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group_krusk_simper" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Spring" sheetId="6" r:id="rId6"/>
     <sheet name="All Sig" sheetId="1" r:id="rId7"/>
     <sheet name="SIMPER%" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="131">
   <si>
     <t>X</t>
   </si>
@@ -439,13 +440,19 @@
   <si>
     <t>Spring_Total</t>
   </si>
+  <si>
+    <t>Cumulative SIMPER (%)</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -989,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1347,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B58"/>
     </sheetView>
   </sheetViews>
@@ -6242,7 +6249,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6252,10 +6259,10 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="70.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.140625" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -6922,81 +6929,201 @@
         <v>84</v>
       </c>
     </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
       <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="21">
+        <f>SUM(B4:B7)*100</f>
+        <v>4.2049246389534902</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20">
+        <v>5.6281012383848799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="21">
+        <f>SUM(B8:B11)*100</f>
+        <v>5.6281012383848799</v>
+      </c>
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H21" t="s">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="J21">
+        <v>4.2049246389534902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="E22" s="21">
+        <f>SUM(B3)*100</f>
+        <v>1.2210473649617999</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22">
+        <v>3.1904442106527999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="21">
+        <f>SUM(B17)*100</f>
+        <v>1.0330569800664</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23">
+        <v>2.0560293069242999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="21">
+        <f>SUM(B15:B16)*100</f>
+        <v>2.0560293069242999</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24">
+        <v>1.4089121081072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="21">
+        <f>SUM(B2)*100</f>
+        <v>1.4089121081072</v>
+      </c>
+      <c r="G25" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H25" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+      <c r="I25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="J25">
+        <v>1.2210473649617999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="21">
+        <f>SUM(B12:B14)*100</f>
+        <v>3.1904442106527999</v>
+      </c>
+      <c r="G26" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H26" t="s">
         <v>84</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>97</v>
+      <c r="J26">
+        <v>1.0330569800664</v>
       </c>
     </row>
   </sheetData>
@@ -7012,7 +7139,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7022,7 +7149,7 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -7654,70 +7781,171 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
+      <c r="E19" s="21">
+        <f>SUM(B13:B16)*100</f>
+        <v>10.9760018344054</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19">
+        <v>10.9760018344054</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
       <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="21">
+        <f>SUM(B2)*100</f>
+        <v>1.3726620849574001</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20">
+        <v>6.6516813965783292</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="21">
+        <f>SUM(B3:B4)*100</f>
+        <v>2.7447066219703999</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21">
+        <v>4.6461418467785398</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="21">
+        <f>SUM(B8:B9)*100</f>
+        <v>3.6438563161220001</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22">
+        <v>3.6438563161220001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="21">
+        <f>SUM(B5:B7)*100</f>
+        <v>6.6516813965783292</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>2.7447066219703999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="21">
+        <f>SUM(B10:B12)*100</f>
+        <v>4.6461418467785398</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
         <v>84</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
+      <c r="J24">
+        <v>1.3726620849574001</v>
       </c>
       <c r="W24" s="19"/>
     </row>
@@ -7734,7 +7962,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7744,7 +7972,7 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -8029,36 +8257,84 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="E11">
+        <f>SUM(B5)*100</f>
+        <v>2.7201918040468001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11">
+        <v>19.195988473559261</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>106</v>
       </c>
+      <c r="E12">
+        <f>SUM(B6:B7)*100</f>
+        <v>2.1891393448488996</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12">
+        <v>2.7201918040468001</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>104</v>
+      </c>
+      <c r="E13">
+        <f>SUM(B2:B4)*100</f>
+        <v>19.195988473559261</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13">
+        <v>2.1891393448488996</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +8351,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B6"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8085,7 +8361,7 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -8329,36 +8605,84 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="E9">
+        <f>SUM(B4)*100</f>
+        <v>3.7332849799152004</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9">
+        <v>20.273438920650573</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>110</v>
       </c>
+      <c r="E10">
+        <f>SUM(B2:B3)*100</f>
+        <v>20.273438920650573</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10">
+        <v>4.0848252948547996</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
       <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
         <v>111</v>
+      </c>
+      <c r="E11">
+        <f>SUM(B5:B6)*100</f>
+        <v>4.0848252948547996</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11">
+        <v>3.7332849799152004</v>
       </c>
     </row>
   </sheetData>
@@ -8373,8 +8697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8384,7 +8708,7 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -9013,59 +9337,139 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <f>SUM(B3:B6)*100</f>
+        <v>4.4054366312240996</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19">
+        <v>4.9144422130781003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20">
+        <f>SUM(B7:B10)*100</f>
+        <v>4.9144422130781003</v>
+      </c>
+      <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="H20" t="s">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>4.4054366312240996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <f>SUM(B2)*100</f>
+        <v>3.9215537593821597</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21">
+        <v>4.0530694645373995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <f>SUM(B11:B13)*100</f>
+        <v>3.2589660999599999</v>
+      </c>
+      <c r="G22" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="H22" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I22" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
+      <c r="J22">
+        <v>3.9215537593821597</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23">
+        <f>SUM(B14:B16)*100</f>
+        <v>4.0530694645373995</v>
+      </c>
+      <c r="G23" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="H23" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="I23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>102</v>
+      <c r="J23">
+        <v>3.2589660999599999</v>
       </c>
     </row>
   </sheetData>
@@ -9280,8 +9684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A7EEE7-56D2-491D-B5B9-67BF2FD3B1A3}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9807,4 +10211,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3F8054-C7B1-4D90-BC12-8A1F48DDDC77}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simper/group_krusk_simper.xlsx
+++ b/simper/group_krusk_simper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/simper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:40009_{0BF69CA4-1627-4376-95DA-C6DD020424A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3A92BCFF-39C4-4197-B6A7-488EC91F4EEF}"/>
+  <xr:revisionPtr revIDLastSave="718" documentId="13_ncr:40009_{0BF69CA4-1627-4376-95DA-C6DD020424A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{78921776-D11B-44A8-8CF3-366B75237720}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group_krusk_simper" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Spring" sheetId="6" r:id="rId6"/>
     <sheet name="All Sig" sheetId="1" r:id="rId7"/>
     <sheet name="SIMPER%" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
+    <sheet name="SuppTableDraft" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="169">
   <si>
     <t>X</t>
   </si>
@@ -446,13 +446,128 @@
   <si>
     <t>Ordered</t>
   </si>
+  <si>
+    <t>Table S5. SIMPER results.</t>
+  </si>
+  <si>
+    <t>Contribution to SIMPER (%)</t>
+  </si>
+  <si>
+    <t>Taxonomic Classification</t>
+  </si>
+  <si>
+    <t>Summer Wild vs. Summer Lab</t>
+  </si>
+  <si>
+    <t>Summer Wild vs. Torpor</t>
+  </si>
+  <si>
+    <t>Summer Wild vs. IBA</t>
+  </si>
+  <si>
+    <t>Summer Wild vs. Spring</t>
+  </si>
+  <si>
+    <t>Summer Lab vs. Torpor</t>
+  </si>
+  <si>
+    <t>Summer Lab vs. IBA</t>
+  </si>
+  <si>
+    <t>Summer Lab vs. Spring</t>
+  </si>
+  <si>
+    <t>Torpor vs IBA</t>
+  </si>
+  <si>
+    <t>Torpor vs. Spring</t>
+  </si>
+  <si>
+    <t>IBA vs. Spring</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Most resolved</t>
+  </si>
+  <si>
+    <t>Bacterpodetes</t>
+  </si>
+  <si>
+    <t>Prevotellaceae_UCG-003</t>
+  </si>
+  <si>
+    <t>Firmicutes</t>
+  </si>
+  <si>
+    <t>Ruminiclostridium_6</t>
+  </si>
+  <si>
+    <t>Lachnospiraceae_NK4A136</t>
+  </si>
+  <si>
+    <t>Ruminococcus_1</t>
+  </si>
+  <si>
+    <t>Bacteroidetes</t>
+  </si>
+  <si>
+    <t>Kiritimatiellaeota</t>
+  </si>
+  <si>
+    <t>Verrucomicrobia</t>
+  </si>
+  <si>
+    <t>Prevotellaceae_UCG-001</t>
+  </si>
+  <si>
+    <t>Coprococcus_2</t>
+  </si>
+  <si>
+    <t>Number of OTUs</t>
+  </si>
+  <si>
+    <t>Cumulative SIMPER</t>
+  </si>
+  <si>
+    <t>Summer Wild Number of OTUs</t>
+  </si>
+  <si>
+    <t>Summer Lab Number of OTUs</t>
+  </si>
+  <si>
+    <t>Torpor Number of OTUs</t>
+  </si>
+  <si>
+    <t>IBA Number of OTUs</t>
+  </si>
+  <si>
+    <t>Spring Number of OTUs</t>
+  </si>
+  <si>
+    <t>Summer Wild Cumulative SIMPER</t>
+  </si>
+  <si>
+    <t>Summer Lab Cumulative SIMPER</t>
+  </si>
+  <si>
+    <t>Torpor Cumulative SIMPER</t>
+  </si>
+  <si>
+    <t>IBA Cumulative SIMPER</t>
+  </si>
+  <si>
+    <t>Spring Cumulative SIMPER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -785,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -929,8 +1044,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -973,8 +1125,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -997,8 +1150,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1038,6 +1211,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -6246,10 +6420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6259,7 +6433,7 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.85546875" customWidth="1"/>
+    <col min="6" max="6" width="78.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59.140625" customWidth="1"/>
@@ -7126,6 +7300,72 @@
         <v>1.0330569800664</v>
       </c>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L17">
     <sortCondition ref="C1:C17"/>
@@ -7136,10 +7376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="A25" sqref="A25:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7781,12 +8021,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
@@ -7813,7 +8053,7 @@
         <v>10.9760018344054</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
@@ -7840,7 +8080,7 @@
         <v>6.6516813965783292</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -7867,7 +8107,7 @@
         <v>4.6461418467785398</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
@@ -7894,7 +8134,7 @@
         <v>3.6438563161220001</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
@@ -7921,7 +8161,7 @@
         <v>2.7447066219703999</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
@@ -7948,6 +8188,57 @@
         <v>1.3726620849574001</v>
       </c>
       <c r="W24" s="19"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L15">
@@ -7959,10 +8250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="A11" sqref="A11:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8337,6 +8628,39 @@
         <v>2.1891393448488996</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L8">
     <sortCondition ref="C1:C8"/>
@@ -8348,10 +8672,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8685,6 +9009,60 @@
         <v>3.7332849799152004</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <f>SUM(B2:B6)</f>
+        <v>0.28091549195420573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <f>B2+B3</f>
+        <v>0.20273438920650572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <f>B5+B6</f>
+        <v>4.0848252948547999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <f>B4</f>
+        <v>3.7332849799152003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
     <sortCondition ref="C1:C6"/>
@@ -8695,10 +9073,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A20:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9337,7 +9715,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>65</v>
       </c>
@@ -9364,7 +9742,7 @@
         <v>4.9144422130781003</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -9391,7 +9769,7 @@
         <v>4.4054366312240996</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>59</v>
       </c>
@@ -9418,7 +9796,7 @@
         <v>4.0530694645373995</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>63</v>
       </c>
@@ -9445,7 +9823,7 @@
         <v>3.9215537593821597</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
@@ -9471,6 +9849,39 @@
       <c r="J23">
         <v>3.2589660999599999</v>
       </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
@@ -10215,12 +10626,1068 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3F8054-C7B1-4D90-BC12-8A1F48DDDC77}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F43:F44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26">
+        <v>9.9740717298305706E-2</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26">
+        <v>0.1029936719082</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
+        <v>3.9215537593821598E-2</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
+        <v>1.3726620849574E-2</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26">
+        <v>6.2440823106186698E-2</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26">
+        <v>6.5480738776680605E-2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>3.7332849799152003E-2</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26">
+        <v>6.4038322852725302E-2</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26">
+        <v>1.0659126140329E-2</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26">
+        <v>1.188871546547E-2</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26">
+        <v>1.0711073033499999E-2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1.0795451672942E-2</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26">
+        <v>1.1669882966829E-2</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26">
+        <v>1.2817307114456E-2</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26">
+        <v>1.2273834796561E-2</v>
+      </c>
+      <c r="K10" s="26">
+        <v>1.2383397252935E-2</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26">
+        <v>2.0244439858639999E-2</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26">
+        <v>2.0603813089908E-2</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26">
+        <v>2.7201918040467999E-2</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26">
+        <v>1.0765141214877001E-2</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26">
+        <v>1.0721698686794999E-2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>1.1102821097928E-2</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26">
+        <v>1.1051405265655999E-2</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26">
+        <v>1.0839988182833001E-2</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26">
+        <v>1.3707866296266E-2</v>
+      </c>
+      <c r="G15" s="26">
+        <v>1.3739199923438E-2</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26">
+        <v>2.2323127194787299E-2</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26">
+        <v>2.2141416764108999E-2</v>
+      </c>
+      <c r="G16" s="26">
+        <v>2.2052270006887E-2</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26">
+        <v>1.818360597486E-2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1.8254957186359999E-2</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1.5543679924550399E-2</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26">
+        <v>1.5425799284123E-2</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1.5491939259112001E-2</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="26">
+        <v>2.6887807124092E-2</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26">
+        <v>2.6641117986104999E-2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2.6751511253426001E-2</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2.9479581980431002E-2</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26">
+        <v>1.3200658060594001E-2</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26">
+        <v>1.3583672535368E-2</v>
+      </c>
+      <c r="K20" s="26">
+        <v>1.3746364049411999E-2</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26">
+        <v>1.4089121081071999E-2</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="26">
+        <v>1.2210473649617999E-2</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="26">
+        <v>1.0926445633813E-2</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1.0320367298716999E-2</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1.03620922707729E-2</v>
+      </c>
+      <c r="E23" s="26">
+        <v>1.0440341186232001E-2</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="26">
+        <v>1.46294341141188E-2</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1.3814631382657001E-2</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1.3870483571996E-2</v>
+      </c>
+      <c r="E24" s="26">
+        <v>1.3966463315076999E-2</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="26">
+        <v>1.1018000195130001E-2</v>
+      </c>
+      <c r="C25" s="26">
+        <v>1.0421659723501E-2</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1.0464782187897001E-2</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="26">
+        <v>1.0515260521773E-2</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26">
+        <v>1.0045032547470001E-2</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="27">
+        <v>1.0330569800664E-2</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="28">
+        <f>SUM(B5:B27)</f>
+        <v>0.13438479815854648</v>
+      </c>
+      <c r="C28" s="28">
+        <f t="shared" ref="C28:J28" si="0">SUM(C5:C27)</f>
+        <v>0.1080488867767177</v>
+      </c>
+      <c r="D28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.16877163626868361</v>
+      </c>
+      <c r="E28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1199621830252296</v>
+      </c>
+      <c r="F28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.21334907215501858</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25722021242648296</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="0"/>
+        <v>5.4185604560357002E-2</v>
+      </c>
+      <c r="I28" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1113286019049493</v>
+      </c>
+      <c r="K28" s="28">
+        <f>SUM(K5:K27)</f>
+        <v>4.8028034073216999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29">
+        <f>COUNT(B5:B27)</f>
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:K29" si="1">COUNT(C5:C27)</f>
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="28">
+        <f>B28+C28+D28+E28</f>
+        <v>0.53116750422917747</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="29">
+        <v>19</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="28">
+        <f>B28+F28+G28+H28</f>
+        <v>0.65913968730040506</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="30">
+        <v>19</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="30"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="28">
+        <f>C28+F28+I28+J28</f>
+        <v>0.43272656083668559</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="30">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="30"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="28">
+        <f>D28+G28+I28+K28</f>
+        <v>0.47401988276838358</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="30">
+        <v>16</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="30"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="28">
+        <f>E28+H28+J28+K28</f>
+        <v>0.33350442356375287</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/simper/group_krusk_simper.xlsx
+++ b/simper/group_krusk_simper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/simper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="718" documentId="13_ncr:40009_{0BF69CA4-1627-4376-95DA-C6DD020424A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{78921776-D11B-44A8-8CF3-366B75237720}"/>
+  <xr:revisionPtr revIDLastSave="787" documentId="13_ncr:40009_{0BF69CA4-1627-4376-95DA-C6DD020424A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5AE0CF60-5DAA-40E9-AB58-F4B09A9FD983}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group_krusk_simper" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="All Sig" sheetId="1" r:id="rId7"/>
     <sheet name="SIMPER%" sheetId="9" r:id="rId8"/>
     <sheet name="SuppTableDraft" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="176">
   <si>
     <t>X</t>
   </si>
@@ -559,6 +560,27 @@
   </si>
   <si>
     <t>Spring Cumulative SIMPER</t>
+  </si>
+  <si>
+    <t>Lachsnopiraceae NK4a1alsdjfasdf</t>
+  </si>
+  <si>
+    <t>Lachsnopiraceae</t>
+  </si>
+  <si>
+    <t>Lachno</t>
+  </si>
+  <si>
+    <t>Rumini 6</t>
+  </si>
+  <si>
+    <t>Lachno Nalsf</t>
+  </si>
+  <si>
+    <t>Prev</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1159,6 +1181,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1168,8 +1191,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1532,21 +1553,21 @@
       <selection sqref="A1:B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1578,7 +1599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
@@ -1610,7 +1631,7 @@
         <v>2.4555424652005201E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1642,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1706,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1738,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>68</v>
       </c>
@@ -1770,7 +1791,7 @@
         <v>3.6942710237724101E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -1802,7 +1823,7 @@
         <v>2.4517130713918401E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -1834,7 +1855,7 @@
         <v>5.3669750959294597E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -1866,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -1898,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
@@ -1930,7 +1951,7 @@
         <v>2.7450049579184599E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1962,7 +1983,7 @@
         <v>2.3581960886579699E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1994,7 +2015,7 @@
         <v>5.4603373338422898E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>1.2615755729719E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -2058,7 +2079,7 @@
         <v>6.1329330535177606E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
@@ -2090,7 +2111,7 @@
         <v>1.2150304131566401E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -2122,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2154,7 +2175,7 @@
         <v>1.88660684825274E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2186,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
@@ -2218,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -2250,7 +2271,7 @@
         <v>1.2150304131566401E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
@@ -2282,7 +2303,7 @@
         <v>3.8121565744719303E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -2314,7 +2335,7 @@
         <v>1.2150304131566401E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
@@ -2346,7 +2367,7 @@
         <v>3.8121565744719303E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -2378,7 +2399,7 @@
         <v>1.88660684825274E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +2431,7 @@
         <v>2.3587040805899899E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>68</v>
       </c>
@@ -2442,7 +2463,7 @@
         <v>0.13087528343695901</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -2474,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
@@ -2506,7 +2527,7 @@
         <v>1.2615755729719E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
@@ -2538,7 +2559,7 @@
         <v>0.186293759388517</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
@@ -2570,7 +2591,7 @@
         <v>1.4356956975942E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -2602,7 +2623,7 @@
         <v>1.27721295891486E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>58</v>
       </c>
@@ -2634,7 +2655,7 @@
         <v>3.7174311643039798E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
@@ -2666,7 +2687,7 @@
         <v>1.2615755729719E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>58</v>
       </c>
@@ -2698,7 +2719,7 @@
         <v>1.2150304131566401E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>58</v>
       </c>
@@ -2730,7 +2751,7 @@
         <v>2.6263460365871301E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -2762,7 +2783,7 @@
         <v>1.7707196365263601E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>67</v>
       </c>
@@ -2794,7 +2815,7 @@
         <v>1.7728164816121299E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
@@ -2826,7 +2847,7 @@
         <v>2.6263460365871301E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>32</v>
       </c>
@@ -2858,7 +2879,7 @@
         <v>0.186293759388517</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
@@ -2890,7 +2911,7 @@
         <v>3.8121565744719303E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>58</v>
       </c>
@@ -2922,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
@@ -2954,7 +2975,7 @@
         <v>2.4360700201661101E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2986,7 +3007,7 @@
         <v>4.8934249461808202E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>75</v>
       </c>
@@ -3018,7 +3039,7 @@
         <v>2.6263460365871301E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>67</v>
       </c>
@@ -3050,7 +3071,7 @@
         <v>9.8531442561188301E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -3082,7 +3103,7 @@
         <v>4.5968998279202998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>68</v>
       </c>
@@ -3114,7 +3135,7 @@
         <v>6.4653305599673402E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>68</v>
       </c>
@@ -3146,7 +3167,7 @@
         <v>6.0957730998738096E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>76</v>
       </c>
@@ -3178,7 +3199,7 @@
         <v>1.26536214774201E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -3210,7 +3231,7 @@
         <v>0.13087528343695901</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
@@ -3242,7 +3263,7 @@
         <v>5.7760150102310899E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>68</v>
       </c>
@@ -3274,7 +3295,7 @@
         <v>2.76920779369731E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3327,7 @@
         <v>3.9626339196650401E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>32</v>
       </c>
@@ -3338,7 +3359,7 @@
         <v>3.5359845530699797E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
@@ -3370,7 +3391,7 @@
         <v>3.5359845530699797E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>69</v>
       </c>
@@ -3402,7 +3423,7 @@
         <v>2.6263460365871301E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3434,7 +3455,7 @@
         <v>5.7972067170155705E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -3466,7 +3487,7 @@
         <v>7.1663474184167006E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3498,7 +3519,7 @@
         <v>6.4653305599673402E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -3530,7 +3551,7 @@
         <v>2.85212015458988E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3562,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -3594,7 +3615,7 @@
         <v>2.0161926709785099E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3626,7 +3647,7 @@
         <v>1.26536214774201E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -3658,7 +3679,7 @@
         <v>1.49190838451568E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3690,7 +3711,7 @@
         <v>2.6678092245348901E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -3722,7 +3743,7 @@
         <v>6.4653305599673402E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -3754,7 +3775,7 @@
         <v>2.81971241751964E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -3786,7 +3807,7 @@
         <v>4.4177988373865197E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3818,7 +3839,7 @@
         <v>1.2615755729719E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -3850,7 +3871,7 @@
         <v>2.80717833059204E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -3882,7 +3903,7 @@
         <v>4.4177988373865197E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -3914,7 +3935,7 @@
         <v>2.2789795494030898E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -3946,7 +3967,7 @@
         <v>0.111508261074367</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3978,7 +3999,7 @@
         <v>4.8168463644479402E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4010,7 +4031,7 @@
         <v>1.2485542303576701E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -4042,7 +4063,7 @@
         <v>5.7760150102310899E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -4074,7 +4095,7 @@
         <v>3.8024556272194802E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -4106,7 +4127,7 @@
         <v>5.7760150102310899E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -4138,7 +4159,7 @@
         <v>5.4540569936595097E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -4170,7 +4191,7 @@
         <v>0.111508261074367</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -4202,7 +4223,7 @@
         <v>0.111508261074367</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -4234,7 +4255,7 @@
         <v>3.8024556272194802E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>75</v>
       </c>
@@ -4266,7 +4287,7 @@
         <v>3.01194653718833E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -4298,7 +4319,7 @@
         <v>2.80717833059204E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -4330,7 +4351,7 @@
         <v>2.80717833059204E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -4362,7 +4383,7 @@
         <v>9.46978833190351E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -4394,7 +4415,7 @@
         <v>5.6296260992214603E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -4426,7 +4447,7 @@
         <v>3.4081020667756499E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>75</v>
       </c>
@@ -4458,7 +4479,7 @@
         <v>5.7760150102310899E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>68</v>
       </c>
@@ -4490,7 +4511,7 @@
         <v>3.4081020667756499E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -4522,7 +4543,7 @@
         <v>6.6363583174351096E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -4554,7 +4575,7 @@
         <v>9.8531442561188301E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -4586,7 +4607,7 @@
         <v>8.7895014184604797E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -4618,7 +4639,7 @@
         <v>0.111508261074367</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>74</v>
       </c>
@@ -4650,7 +4671,7 @@
         <v>0.13087528343695901</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>67</v>
       </c>
@@ -4682,7 +4703,7 @@
         <v>3.7408323963710598E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -4714,7 +4735,7 @@
         <v>8.7895014184604797E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>67</v>
       </c>
@@ -4746,7 +4767,7 @@
         <v>9.46978833190351E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -4778,7 +4799,7 @@
         <v>3.7514972223656302E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>68</v>
       </c>
@@ -4810,7 +4831,7 @@
         <v>8.6285787175387402E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>76</v>
       </c>
@@ -4842,7 +4863,7 @@
         <v>2.5426315881437599E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>68</v>
       </c>
@@ -4874,7 +4895,7 @@
         <v>5.4572914528293201E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -4906,7 +4927,7 @@
         <v>7.6821995451955604E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>75</v>
       </c>
@@ -4938,7 +4959,7 @@
         <v>2.81971241751964E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>46</v>
       </c>
@@ -4970,7 +4991,7 @@
         <v>7.1663474184167006E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -5002,7 +5023,7 @@
         <v>4.8168463644479402E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -5034,7 +5055,7 @@
         <v>2.2590813348787601E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -5066,7 +5087,7 @@
         <v>7.4878364619457793E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>76</v>
       </c>
@@ -5098,7 +5119,7 @@
         <v>3.7514972223656302E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>69</v>
       </c>
@@ -5130,7 +5151,7 @@
         <v>3.7514972223656302E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -5162,7 +5183,7 @@
         <v>1.61931355061215E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -5194,7 +5215,7 @@
         <v>0.103878853845691</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>68</v>
       </c>
@@ -5226,7 +5247,7 @@
         <v>0.103878853845691</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>68</v>
       </c>
@@ -5258,7 +5279,7 @@
         <v>5.0166117390234397E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>74</v>
       </c>
@@ -5290,7 +5311,7 @@
         <v>1.54942812456728E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>74</v>
       </c>
@@ -5322,7 +5343,7 @@
         <v>4.13174449448242E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>74</v>
       </c>
@@ -5354,7 +5375,7 @@
         <v>3.4081020667756499E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>75</v>
       </c>
@@ -5386,7 +5407,7 @@
         <v>2.3881113583235202E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>69</v>
       </c>
@@ -5418,7 +5439,7 @@
         <v>1.24820271759453E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>69</v>
       </c>
@@ -5450,7 +5471,7 @@
         <v>1.04945353237019E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>75</v>
       </c>
@@ -5482,7 +5503,7 @@
         <v>4.9170096167805502E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>76</v>
       </c>
@@ -5514,7 +5535,7 @@
         <v>2.6739531654950302E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>46</v>
       </c>
@@ -5546,7 +5567,7 @@
         <v>5.0166117390234397E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>46</v>
       </c>
@@ -5578,7 +5599,7 @@
         <v>4.13174449448242E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -5610,7 +5631,7 @@
         <v>5.2839689444498499E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>74</v>
       </c>
@@ -5642,7 +5663,7 @@
         <v>5.4572914528293201E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>74</v>
       </c>
@@ -5674,7 +5695,7 @@
         <v>5.0166117390234397E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -5706,7 +5727,7 @@
         <v>3.1438683796349301E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>68</v>
       </c>
@@ -5738,7 +5759,7 @@
         <v>4.13174449448242E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>69</v>
       </c>
@@ -5770,7 +5791,7 @@
         <v>2.81971241751964E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>76</v>
       </c>
@@ -5802,7 +5823,7 @@
         <v>2.80717833059204E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>46</v>
       </c>
@@ -5834,7 +5855,7 @@
         <v>5.6296260992214603E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>69</v>
       </c>
@@ -5866,7 +5887,7 @@
         <v>2.6668724533579099E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>74</v>
       </c>
@@ -5898,7 +5919,7 @@
         <v>0.103878853845691</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>74</v>
       </c>
@@ -5930,7 +5951,7 @@
         <v>8.6285787175387402E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>74</v>
       </c>
@@ -5962,7 +5983,7 @@
         <v>5.6296260992214603E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>75</v>
       </c>
@@ -5994,7 +6015,7 @@
         <v>3.7514972223656302E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>76</v>
       </c>
@@ -6026,7 +6047,7 @@
         <v>2.38293128597131E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>68</v>
       </c>
@@ -6058,7 +6079,7 @@
         <v>7.1663474184167006E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>46</v>
       </c>
@@ -6090,7 +6111,7 @@
         <v>8.6285787175387402E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>76</v>
       </c>
@@ -6122,7 +6143,7 @@
         <v>3.7299980855538002E-5</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>76</v>
       </c>
@@ -6154,7 +6175,7 @@
         <v>4.9170096167805502E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>75</v>
       </c>
@@ -6186,7 +6207,7 @@
         <v>7.8177679131524198E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>76</v>
       </c>
@@ -6218,7 +6239,7 @@
         <v>7.8177679131524198E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>69</v>
       </c>
@@ -6250,7 +6271,7 @@
         <v>2.2590813348787601E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>67</v>
       </c>
@@ -6282,7 +6303,7 @@
         <v>5.4540569936595097E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>67</v>
       </c>
@@ -6314,7 +6335,7 @@
         <v>2.8682023386485699E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -6346,7 +6367,7 @@
         <v>8.4868054195235097E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>69</v>
       </c>
@@ -6378,7 +6399,7 @@
         <v>3.8121565744719303E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>46</v>
       </c>
@@ -6413,6 +6434,296 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J152">
     <sortCondition ref="E1:E152"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09947B16-72AD-431F-839E-9C9A7D24F504}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K1:K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="31">
+        <v>9.9740717298305706E-2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="31">
+        <v>6.2440823106186698E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="31">
+        <v>5.6281012383848798E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="31">
+        <v>4.2049246389534903E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="31">
+        <v>3.9215537593821598E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="31">
+        <v>3.1904442106528E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="31">
+        <v>2.6887807124092E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="31">
+        <v>2.2323127194787299E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="31">
+        <v>2.0560293069243001E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="31">
+        <v>2.0244439858639999E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="31">
+        <v>1.5543679924550399E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1.4089121081071999E-2</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="31">
+        <v>1.3200658060594001E-2</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1.2210473649617999E-2</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="31">
+        <v>1.1669882966829E-2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="31">
+        <v>1.1051405265655999E-2</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1.0765141214877001E-2</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="31">
+        <v>1.0659126140329E-2</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="31">
+        <v>1.0330569800664E-2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B23">
+    <sortCondition descending="1" ref="B1:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6422,27 +6733,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F20:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.109375" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6480,7 +6791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -6518,7 +6829,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -6559,7 +6870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -6600,7 +6911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6641,7 +6952,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -6682,7 +6993,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
@@ -6723,7 +7034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6761,7 +7072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6799,7 +7110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -6837,7 +7148,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
@@ -6875,7 +7186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6913,7 +7224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -6951,7 +7262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -6989,7 +7300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7027,7 +7338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
@@ -7065,7 +7376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -7103,7 +7414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>129</v>
       </c>
@@ -7111,7 +7422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -7138,7 +7449,7 @@
         <v>5.6281012383848799</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -7165,7 +7476,7 @@
         <v>4.2049246389534902</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -7192,7 +7503,7 @@
         <v>3.1904442106527999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -7219,7 +7530,7 @@
         <v>2.0560293069242999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -7246,7 +7557,7 @@
         <v>1.4089121081072</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -7273,7 +7584,7 @@
         <v>1.2210473649617999</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -7300,71 +7611,71 @@
         <v>1.0330569800664</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L17">
@@ -7382,23 +7693,23 @@
       <selection activeCell="A25" sqref="A25:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7436,7 +7747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>68</v>
       </c>
@@ -7474,7 +7785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -7515,7 +7826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>67</v>
       </c>
@@ -7556,7 +7867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
@@ -7597,7 +7908,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
@@ -7638,7 +7949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -7679,7 +7990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
@@ -7717,7 +8028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
@@ -7755,7 +8066,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>67</v>
       </c>
@@ -7793,7 +8104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
@@ -7831,7 +8142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>68</v>
       </c>
@@ -7869,7 +8180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -7907,7 +8218,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -7945,7 +8256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7983,7 +8294,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -8021,12 +8332,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
@@ -8053,7 +8364,7 @@
         <v>10.9760018344054</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
@@ -8080,7 +8391,7 @@
         <v>6.6516813965783292</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8107,7 +8418,7 @@
         <v>4.6461418467785398</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
@@ -8134,7 +8445,7 @@
         <v>3.6438563161220001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
@@ -8161,7 +8472,7 @@
         <v>2.7447066219703999</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
@@ -8189,56 +8500,56 @@
       </c>
       <c r="W24" s="19"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L15">
@@ -8256,23 +8567,23 @@
       <selection activeCell="A11" sqref="A11:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8310,7 +8621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8348,7 +8659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -8389,7 +8700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -8430,7 +8741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>68</v>
       </c>
@@ -8471,7 +8782,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -8509,7 +8820,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8547,7 +8858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>47</v>
       </c>
@@ -8574,7 +8885,7 @@
         <v>19.195988473559261</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -8601,7 +8912,7 @@
         <v>2.7201918040468001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
@@ -8628,38 +8939,38 @@
         <v>2.1891393448488996</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L8">
@@ -8678,23 +8989,23 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8732,7 +9043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -8770,7 +9081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -8811,7 +9122,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>67</v>
       </c>
@@ -8852,7 +9163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -8890,7 +9201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -8928,7 +9239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
@@ -8955,7 +9266,7 @@
         <v>20.273438920650573</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
@@ -8982,7 +9293,7 @@
         <v>4.0848252948547996</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
@@ -9009,59 +9320,59 @@
         <v>3.7332849799152004</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
         <f>SUM(B2:B6)</f>
         <v>0.28091549195420573</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
         <f>B2+B3</f>
         <v>0.20273438920650572</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
         <f>B5+B6</f>
         <v>4.0848252948547999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <f>B4</f>
         <v>3.7332849799152003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
@@ -9079,23 +9390,23 @@
       <selection activeCell="A31" sqref="A20:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -9133,7 +9444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
@@ -9171,7 +9482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>58</v>
       </c>
@@ -9212,7 +9523,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>76</v>
       </c>
@@ -9253,7 +9564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -9294,7 +9605,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>69</v>
       </c>
@@ -9335,7 +9646,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>76</v>
       </c>
@@ -9373,7 +9684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>69</v>
       </c>
@@ -9411,7 +9722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>75</v>
       </c>
@@ -9449,7 +9760,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
@@ -9487,7 +9798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>75</v>
       </c>
@@ -9525,7 +9836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>76</v>
       </c>
@@ -9563,7 +9874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
@@ -9601,7 +9912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -9639,7 +9950,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -9677,7 +9988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -9715,7 +10026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>65</v>
       </c>
@@ -9742,7 +10053,7 @@
         <v>4.9144422130781003</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -9769,7 +10080,7 @@
         <v>4.4054366312240996</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>59</v>
       </c>
@@ -9796,7 +10107,7 @@
         <v>4.0530694645373995</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>63</v>
       </c>
@@ -9823,7 +10134,7 @@
         <v>3.9215537593821597</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
@@ -9850,38 +10161,38 @@
         <v>3.2589660999599999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
@@ -9899,9 +10210,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
@@ -9909,7 +10220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
@@ -9917,7 +10228,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -9925,7 +10236,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
@@ -9933,7 +10244,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>65</v>
       </c>
@@ -9941,7 +10252,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
@@ -9949,7 +10260,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
@@ -9957,7 +10268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
@@ -9965,7 +10276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>63</v>
       </c>
@@ -9973,7 +10284,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>57</v>
       </c>
@@ -9981,7 +10292,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -9989,7 +10300,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -9997,7 +10308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
@@ -10005,7 +10316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
@@ -10013,7 +10324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
@@ -10021,7 +10332,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>60</v>
       </c>
@@ -10029,7 +10340,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -10037,7 +10348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -10045,7 +10356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -10053,7 +10364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -10061,7 +10372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -10069,7 +10380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -10077,7 +10388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -10099,28 +10410,28 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10176,7 +10487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -10232,7 +10543,7 @@
         <v>1.1102821097928E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -10288,7 +10599,7 @@
         <v>1.3746364049411999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -10344,7 +10655,7 @@
         <v>1.2383397252935E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -10398,7 +10709,7 @@
         <v>1.0795451672942E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -10446,7 +10757,7 @@
         <v>4.8028034073216992E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -10486,7 +10797,7 @@
         <v>0.1113286019049493</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -10516,7 +10827,7 @@
         <v>3.7332849799152003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -10542,7 +10853,7 @@
         <v>2.0603813089908E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -10564,7 +10875,7 @@
         <v>0.25722021242648302</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUM(B2:B10)</f>
         <v>0.13438479815854651</v>
@@ -10574,7 +10885,7 @@
         <v>0.21334907215501858</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -10583,7 +10894,7 @@
         <v>53.116750422917747</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -10592,7 +10903,7 @@
         <v>65.913968730040523</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -10601,7 +10912,7 @@
         <v>43.272656083668558</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -10610,7 +10921,7 @@
         <v>47.40198827683836</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -10628,55 +10939,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3F8054-C7B1-4D90-BC12-8A1F48DDDC77}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F43:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="31" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
@@ -10717,7 +11028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -10742,7 +11053,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -10765,7 +11076,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -10788,7 +11099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -10817,7 +11128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -10846,7 +11157,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -10875,7 +11186,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -10900,7 +11211,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -10923,7 +11234,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -10950,7 +11261,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -10975,7 +11286,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -11000,7 +11311,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -11027,7 +11338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -11052,7 +11363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -11079,7 +11390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -11108,7 +11419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -11135,7 +11446,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -11158,7 +11469,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -11181,7 +11492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -11210,7 +11521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -11239,7 +11550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -11266,7 +11577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -11291,7 +11602,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -11314,7 +11625,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -11359,7 +11670,7 @@
         <v>4.8028034073216999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -11404,7 +11715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -11413,12 +11724,8 @@
         <v>0.53116750422917747</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -11426,20 +11733,12 @@
         <v>19</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -11448,12 +11747,8 @@
         <v>0.65913968730040506</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>160</v>
       </c>
@@ -11461,20 +11756,12 @@
         <v>19</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>166</v>
       </c>
@@ -11483,12 +11770,8 @@
         <v>0.43272656083668559</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -11496,20 +11779,12 @@
         <v>16</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -11518,13 +11793,8 @@
         <v>0.47401988276838358</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -11532,22 +11802,12 @@
         <v>16</v>
       </c>
       <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>168</v>
       </c>
@@ -11556,13 +11816,8 @@
         <v>0.33350442356375287</v>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -11570,113 +11825,71 @@
         <v>10</v>
       </c>
       <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
